--- a/2018년 웹페이지 작업/Table/180717 NI HW Spec Table.xlsx
+++ b/2018년 웹페이지 작업/Table/180717 NI HW Spec Table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\LabVIEW\Foens 2016.11.28~\문서\홈페이지 제작\2018년 웹페이지 작업\Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\LabVIEW\Foens 2016.11.28~\문서\홈페이지 제작\Webpage\branches\aa\2018년 웹페이지 작업\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F35E8599-79AE-42BE-8EBD-6D97EE0FD8FD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A81B75-F255-43FF-BB3A-A122A4BBDEE9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16320" windowHeight="5625" tabRatio="674" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16320" windowHeight="5625" tabRatio="674" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="plug in DAQ" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1269" uniqueCount="636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="637">
   <si>
     <t>Spec.</t>
   </si>
@@ -2856,6 +2856,10 @@
   </si>
   <si>
     <t>섀시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3020,7 +3024,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3063,6 +3067,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="165">
     <border>
@@ -5237,7 +5247,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="557">
+  <cellXfs count="561">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6147,15 +6157,9 @@
     <xf numFmtId="0" fontId="16" fillId="3" borderId="112" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="78" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="69" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="93" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6171,12 +6175,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="58" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="92" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6209,6 +6207,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="141" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="130" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6282,130 +6283,340 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="150" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="68" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="156" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="154" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="71" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="60" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="77" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="79" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="155" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="149" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="157" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="137" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="145" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="143" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="146" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="142" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="143" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="144" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="102" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="110" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="103" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="97" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="101" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="95" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="82" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="82" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="103" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="97" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="101" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="95" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="103" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="97" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="78" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="77" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="79" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="155" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="151" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="153" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="68" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="68" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="69" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="53" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="53" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="149" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="150" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="157" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="147" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="148" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="152" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="60" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="68" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="156" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="154" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="71" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="60" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="137" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="145" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="143" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="146" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="142" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="143" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="144" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="82" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="84" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="82" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="82" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="82" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="68" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="91" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="68" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="91" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="83" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="84" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="80" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="80" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="83" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="84" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="83" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6414,62 +6625,107 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="68" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="4" borderId="58" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="4" borderId="52" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="61" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="94" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="96" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="105" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="68" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="68" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="80" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="89" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="105" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="89" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="105" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="71" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="111" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="108" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="106" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -6483,13 +6739,7 @@
     <xf numFmtId="0" fontId="14" fillId="4" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="105" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6498,12 +6748,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -6522,217 +6766,46 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="106" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="68" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="107" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="58" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="52" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="68" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="68" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="107" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="105" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="105" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="68" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="89" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="89" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="71" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="111" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="108" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="4" borderId="61" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="4" borderId="94" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="4" borderId="96" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="91" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="80" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="83" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="82" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="84" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="83" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="84" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="82" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="100" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6745,147 +6818,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="83" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="82" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="91" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="102" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="110" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="103" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="97" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="101" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="95" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="82" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="103" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="97" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="101" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="95" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="103" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="97" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="84" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="127" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="138" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="128" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="129" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="119" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="130" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6906,8 +6838,98 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="135" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="130" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="127" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="138" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="128" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="129" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="119" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="79" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="8" borderId="58" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="8" borderId="60" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="8" borderId="52" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="150" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="153" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="8" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="68" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="68" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="8" borderId="147" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="78" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="8" borderId="78" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="152" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="8" borderId="148" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -8101,8 +8123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:P69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView topLeftCell="B19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8160,7 +8182,7 @@
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B5" s="324" t="s">
+      <c r="B5" s="321" t="s">
         <v>409</v>
       </c>
       <c r="C5" s="14" t="s">
@@ -8192,7 +8214,7 @@
       <c r="M5" s="16"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B6" s="324"/>
+      <c r="B6" s="321"/>
       <c r="C6" s="17" t="s">
         <v>402</v>
       </c>
@@ -8222,7 +8244,7 @@
       <c r="M6" s="19"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B7" s="325" t="s">
+      <c r="B7" s="322" t="s">
         <v>410</v>
       </c>
       <c r="C7" s="165" t="s">
@@ -8254,7 +8276,7 @@
       <c r="M7" s="35"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B8" s="326"/>
+      <c r="B8" s="323"/>
       <c r="C8" s="36" t="s">
         <v>405</v>
       </c>
@@ -8284,7 +8306,7 @@
       <c r="M8" s="38"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="327" t="s">
+      <c r="B9" s="324" t="s">
         <v>411</v>
       </c>
       <c r="C9" s="96" t="s">
@@ -8316,7 +8338,7 @@
       <c r="M9" s="98"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B10" s="328"/>
+      <c r="B10" s="325"/>
       <c r="C10" s="96" t="s">
         <v>406</v>
       </c>
@@ -8346,7 +8368,7 @@
       <c r="M10" s="19"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B11" s="328"/>
+      <c r="B11" s="325"/>
       <c r="C11" s="96" t="s">
         <v>407</v>
       </c>
@@ -8376,7 +8398,7 @@
       <c r="M11" s="42"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B12" s="329"/>
+      <c r="B12" s="326"/>
       <c r="C12" s="166" t="s">
         <v>408</v>
       </c>
@@ -8452,7 +8474,7 @@
       </c>
     </row>
     <row r="17" spans="2:14" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="324" t="s">
+      <c r="B17" s="321" t="s">
         <v>85</v>
       </c>
       <c r="C17" s="14" t="s">
@@ -8488,7 +8510,7 @@
       </c>
     </row>
     <row r="18" spans="2:14" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="324"/>
+      <c r="B18" s="321"/>
       <c r="C18" s="17" t="s">
         <v>54</v>
       </c>
@@ -8522,7 +8544,7 @@
       </c>
     </row>
     <row r="19" spans="2:14" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="324"/>
+      <c r="B19" s="321"/>
       <c r="C19" s="30" t="s">
         <v>55</v>
       </c>
@@ -8556,7 +8578,7 @@
       </c>
     </row>
     <row r="20" spans="2:14" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="325" t="s">
+      <c r="B20" s="322" t="s">
         <v>87</v>
       </c>
       <c r="C20" s="33" t="s">
@@ -8592,7 +8614,7 @@
       </c>
     </row>
     <row r="21" spans="2:14" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="326"/>
+      <c r="B21" s="323"/>
       <c r="C21" s="36" t="s">
         <v>57</v>
       </c>
@@ -8626,7 +8648,7 @@
       </c>
     </row>
     <row r="22" spans="2:14" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="336" t="s">
+      <c r="B22" s="333" t="s">
         <v>18</v>
       </c>
       <c r="C22" s="96" t="s">
@@ -8662,7 +8684,7 @@
       </c>
     </row>
     <row r="23" spans="2:14" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="328"/>
+      <c r="B23" s="325"/>
       <c r="C23" s="23" t="s">
         <v>59</v>
       </c>
@@ -8696,7 +8718,7 @@
       </c>
     </row>
     <row r="24" spans="2:14" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="328"/>
+      <c r="B24" s="325"/>
       <c r="C24" s="91" t="s">
         <v>71</v>
       </c>
@@ -8730,7 +8752,7 @@
       </c>
     </row>
     <row r="25" spans="2:14" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="329"/>
+      <c r="B25" s="326"/>
       <c r="C25" s="99" t="s">
         <v>72</v>
       </c>
@@ -8765,7 +8787,7 @@
       <c r="N25" s="164"/>
     </row>
     <row r="26" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="337" t="s">
+      <c r="B26" s="334" t="s">
         <v>298</v>
       </c>
       <c r="C26" s="58" t="s">
@@ -8802,7 +8824,7 @@
       <c r="N26" s="175"/>
     </row>
     <row r="27" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="338"/>
+      <c r="B27" s="335"/>
       <c r="C27" s="25" t="s">
         <v>74</v>
       </c>
@@ -8836,7 +8858,7 @@
       </c>
     </row>
     <row r="28" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="338"/>
+      <c r="B28" s="335"/>
       <c r="C28" s="25" t="s">
         <v>75</v>
       </c>
@@ -8870,7 +8892,7 @@
       </c>
     </row>
     <row r="29" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="338"/>
+      <c r="B29" s="335"/>
       <c r="C29" s="174" t="s">
         <v>422</v>
       </c>
@@ -8904,7 +8926,7 @@
       </c>
     </row>
     <row r="30" spans="2:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="339"/>
+      <c r="B30" s="336"/>
       <c r="C30" s="26" t="s">
         <v>426</v>
       </c>
@@ -8938,20 +8960,20 @@
       </c>
     </row>
     <row r="32" spans="2:14" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="346" t="s">
+      <c r="B32" s="343" t="s">
         <v>52</v>
       </c>
-      <c r="C32" s="346"/>
-      <c r="D32" s="346"/>
-      <c r="E32" s="346"/>
-      <c r="F32" s="346"/>
-      <c r="G32" s="346"/>
-      <c r="H32" s="346"/>
-      <c r="I32" s="346"/>
-      <c r="J32" s="346"/>
-      <c r="K32" s="346"/>
-      <c r="L32" s="346"/>
-      <c r="M32" s="346"/>
+      <c r="C32" s="343"/>
+      <c r="D32" s="343"/>
+      <c r="E32" s="343"/>
+      <c r="F32" s="343"/>
+      <c r="G32" s="343"/>
+      <c r="H32" s="343"/>
+      <c r="I32" s="343"/>
+      <c r="J32" s="343"/>
+      <c r="K32" s="343"/>
+      <c r="L32" s="343"/>
+      <c r="M32" s="343"/>
     </row>
     <row r="33" spans="2:16" ht="5.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="1"/>
@@ -8995,7 +9017,7 @@
       </c>
     </row>
     <row r="35" spans="2:16" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="333" t="s">
+      <c r="B35" s="330" t="s">
         <v>84</v>
       </c>
       <c r="C35" s="53" t="s">
@@ -9029,7 +9051,7 @@
       <c r="M35" s="54"/>
     </row>
     <row r="36" spans="2:16" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="334"/>
+      <c r="B36" s="331"/>
       <c r="C36" s="181" t="s">
         <v>439</v>
       </c>
@@ -9064,7 +9086,7 @@
       </c>
     </row>
     <row r="37" spans="2:16" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="334"/>
+      <c r="B37" s="331"/>
       <c r="C37" s="181" t="s">
         <v>440</v>
       </c>
@@ -9096,7 +9118,7 @@
       <c r="M37" s="182"/>
     </row>
     <row r="38" spans="2:16" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="334"/>
+      <c r="B38" s="331"/>
       <c r="C38" s="181" t="s">
         <v>441</v>
       </c>
@@ -9128,7 +9150,7 @@
       <c r="M38" s="182"/>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B39" s="334"/>
+      <c r="B39" s="331"/>
       <c r="C39" s="181" t="s">
         <v>437</v>
       </c>
@@ -9164,7 +9186,7 @@
       </c>
     </row>
     <row r="40" spans="2:16" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="331"/>
+      <c r="B40" s="328"/>
       <c r="C40" s="23" t="s">
         <v>38</v>
       </c>
@@ -9200,7 +9222,7 @@
       </c>
     </row>
     <row r="41" spans="2:16" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="331"/>
+      <c r="B41" s="328"/>
       <c r="C41" s="23" t="s">
         <v>39</v>
       </c>
@@ -9236,7 +9258,7 @@
       </c>
     </row>
     <row r="42" spans="2:16" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="331"/>
+      <c r="B42" s="328"/>
       <c r="C42" s="23" t="s">
         <v>41</v>
       </c>
@@ -9272,7 +9294,7 @@
       </c>
     </row>
     <row r="43" spans="2:16" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="331"/>
+      <c r="B43" s="328"/>
       <c r="C43" s="17" t="s">
         <v>299</v>
       </c>
@@ -9308,7 +9330,7 @@
       </c>
     </row>
     <row r="44" spans="2:16" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="335"/>
+      <c r="B44" s="332"/>
       <c r="C44" s="56" t="s">
         <v>43</v>
       </c>
@@ -9342,7 +9364,7 @@
       </c>
     </row>
     <row r="45" spans="2:16" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="343" t="s">
+      <c r="B45" s="340" t="s">
         <v>89</v>
       </c>
       <c r="C45" s="111" t="s">
@@ -9376,7 +9398,7 @@
       </c>
     </row>
     <row r="46" spans="2:16" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="344"/>
+      <c r="B46" s="341"/>
       <c r="C46" s="22" t="s">
         <v>47</v>
       </c>
@@ -9408,7 +9430,7 @@
       </c>
     </row>
     <row r="47" spans="2:16" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="344"/>
+      <c r="B47" s="341"/>
       <c r="C47" s="22" t="s">
         <v>48</v>
       </c>
@@ -9442,7 +9464,7 @@
       </c>
     </row>
     <row r="48" spans="2:16" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="347"/>
+      <c r="B48" s="344"/>
       <c r="C48" s="174" t="s">
         <v>49</v>
       </c>
@@ -9476,7 +9498,7 @@
       </c>
     </row>
     <row r="49" spans="2:14" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="347"/>
+      <c r="B49" s="344"/>
       <c r="C49" s="174" t="s">
         <v>436</v>
       </c>
@@ -9506,7 +9528,7 @@
       <c r="M49" s="179"/>
     </row>
     <row r="50" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="345"/>
+      <c r="B50" s="342"/>
       <c r="C50" s="36" t="s">
         <v>431</v>
       </c>
@@ -9536,7 +9558,7 @@
       <c r="M50" s="117"/>
     </row>
     <row r="51" spans="2:14" ht="31.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="340" t="s">
+      <c r="B51" s="337" t="s">
         <v>18</v>
       </c>
       <c r="C51" s="104" t="s">
@@ -9573,7 +9595,7 @@
       <c r="N51" s="164"/>
     </row>
     <row r="52" spans="2:14" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="341"/>
+      <c r="B52" s="338"/>
       <c r="C52" s="39" t="s">
         <v>22</v>
       </c>
@@ -9607,7 +9629,7 @@
       </c>
     </row>
     <row r="53" spans="2:14" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="341"/>
+      <c r="B53" s="338"/>
       <c r="C53" s="39" t="s">
         <v>24</v>
       </c>
@@ -9641,7 +9663,7 @@
       </c>
     </row>
     <row r="54" spans="2:14" ht="31.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="341"/>
+      <c r="B54" s="338"/>
       <c r="C54" s="39" t="s">
         <v>25</v>
       </c>
@@ -9675,7 +9697,7 @@
       </c>
     </row>
     <row r="55" spans="2:14" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="342"/>
+      <c r="B55" s="339"/>
       <c r="C55" s="92" t="s">
         <v>26</v>
       </c>
@@ -9709,7 +9731,7 @@
       </c>
     </row>
     <row r="56" spans="2:14" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="343" t="s">
+      <c r="B56" s="340" t="s">
         <v>8</v>
       </c>
       <c r="C56" s="33" t="s">
@@ -9745,7 +9767,7 @@
       </c>
     </row>
     <row r="57" spans="2:14" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="344"/>
+      <c r="B57" s="341"/>
       <c r="C57" s="22" t="s">
         <v>14</v>
       </c>
@@ -9779,7 +9801,7 @@
       </c>
     </row>
     <row r="58" spans="2:14" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="344"/>
+      <c r="B58" s="341"/>
       <c r="C58" s="22" t="s">
         <v>16</v>
       </c>
@@ -9813,7 +9835,7 @@
       </c>
     </row>
     <row r="59" spans="2:14" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="345"/>
+      <c r="B59" s="342"/>
       <c r="C59" s="36" t="s">
         <v>17</v>
       </c>
@@ -9847,7 +9869,7 @@
       </c>
     </row>
     <row r="60" spans="2:14" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="330" t="s">
+      <c r="B60" s="327" t="s">
         <v>88</v>
       </c>
       <c r="C60" s="120" t="s">
@@ -9883,7 +9905,7 @@
       </c>
     </row>
     <row r="61" spans="2:14" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="331"/>
+      <c r="B61" s="328"/>
       <c r="C61" s="122" t="s">
         <v>30</v>
       </c>
@@ -9917,7 +9939,7 @@
       </c>
     </row>
     <row r="62" spans="2:14" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="331"/>
+      <c r="B62" s="328"/>
       <c r="C62" s="122" t="s">
         <v>400</v>
       </c>
@@ -9951,7 +9973,7 @@
       </c>
     </row>
     <row r="63" spans="2:14" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="331"/>
+      <c r="B63" s="328"/>
       <c r="C63" s="122" t="s">
         <v>33</v>
       </c>
@@ -9985,7 +10007,7 @@
       </c>
     </row>
     <row r="64" spans="2:14" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="331"/>
+      <c r="B64" s="328"/>
       <c r="C64" s="122" t="s">
         <v>34</v>
       </c>
@@ -10019,7 +10041,7 @@
       </c>
     </row>
     <row r="65" spans="2:13" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="332"/>
+      <c r="B65" s="329"/>
       <c r="C65" s="123" t="s">
         <v>35</v>
       </c>
@@ -10080,10 +10102,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B1:H16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10099,8 +10121,8 @@
     <col min="9" max="16384" width="8.75" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="276" t="s">
         <v>619</v>
       </c>
@@ -10119,234 +10141,245 @@
       <c r="G2" s="216" t="s">
         <v>209</v>
       </c>
-      <c r="H2" s="304" t="s">
+      <c r="H2" s="303" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="350" t="s">
+    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="354" t="s">
         <v>219</v>
       </c>
-      <c r="C3" s="307" t="s">
+      <c r="C3" s="305" t="s">
         <v>226</v>
       </c>
-      <c r="D3" s="362" t="s">
+      <c r="D3" s="357" t="s">
         <v>210</v>
       </c>
-      <c r="E3" s="309">
+      <c r="E3" s="307">
         <v>1</v>
       </c>
-      <c r="F3" s="371" t="s">
+      <c r="F3" s="347" t="s">
         <v>242</v>
       </c>
-      <c r="G3" s="371"/>
-      <c r="H3" s="374" t="s">
+      <c r="G3" s="347"/>
+      <c r="H3" s="350" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="351"/>
-      <c r="C4" s="308" t="s">
+    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="355"/>
+      <c r="C4" s="306" t="s">
         <v>227</v>
       </c>
-      <c r="D4" s="363"/>
-      <c r="E4" s="310">
+      <c r="D4" s="345"/>
+      <c r="E4" s="308">
         <v>4</v>
       </c>
-      <c r="F4" s="372"/>
-      <c r="G4" s="372"/>
-      <c r="H4" s="375"/>
-    </row>
-    <row r="5" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="351"/>
-      <c r="C5" s="308" t="s">
+      <c r="F4" s="348"/>
+      <c r="G4" s="348"/>
+      <c r="H4" s="351"/>
+    </row>
+    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="355"/>
+      <c r="C5" s="306" t="s">
         <v>228</v>
       </c>
-      <c r="D5" s="364"/>
-      <c r="E5" s="310">
+      <c r="D5" s="358"/>
+      <c r="E5" s="308">
         <v>8</v>
       </c>
-      <c r="F5" s="372"/>
-      <c r="G5" s="372"/>
-      <c r="H5" s="375"/>
-    </row>
-    <row r="6" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="351"/>
-      <c r="C6" s="308" t="s">
+      <c r="F5" s="348"/>
+      <c r="G5" s="348"/>
+      <c r="H5" s="351"/>
+    </row>
+    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="355"/>
+      <c r="C6" s="306" t="s">
         <v>229</v>
       </c>
-      <c r="D6" s="310" t="s">
+      <c r="D6" s="308" t="s">
         <v>213</v>
       </c>
-      <c r="E6" s="310">
+      <c r="E6" s="308">
         <v>14</v>
       </c>
-      <c r="F6" s="372"/>
-      <c r="G6" s="372"/>
-      <c r="H6" s="376"/>
-    </row>
-    <row r="7" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="351"/>
-      <c r="C7" s="308" t="s">
+      <c r="F6" s="348"/>
+      <c r="G6" s="348"/>
+      <c r="H6" s="352"/>
+    </row>
+    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="355"/>
+      <c r="C7" s="306" t="s">
         <v>214</v>
       </c>
-      <c r="D7" s="369" t="s">
+      <c r="D7" s="346" t="s">
         <v>215</v>
       </c>
-      <c r="E7" s="310">
+      <c r="E7" s="308">
         <v>1</v>
       </c>
-      <c r="F7" s="372"/>
-      <c r="G7" s="372"/>
-      <c r="H7" s="377" t="s">
+      <c r="F7" s="348"/>
+      <c r="G7" s="348"/>
+      <c r="H7" s="353" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="351"/>
-      <c r="C8" s="308" t="s">
+    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="355"/>
+      <c r="C8" s="306" t="s">
         <v>310</v>
       </c>
-      <c r="D8" s="369"/>
-      <c r="E8" s="310">
+      <c r="D8" s="346"/>
+      <c r="E8" s="308">
         <v>4</v>
       </c>
-      <c r="F8" s="372"/>
-      <c r="G8" s="372"/>
-      <c r="H8" s="377"/>
-    </row>
-    <row r="9" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="351"/>
-      <c r="C9" s="308" t="s">
+      <c r="F8" s="348"/>
+      <c r="G8" s="348"/>
+      <c r="H8" s="353"/>
+    </row>
+    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="355"/>
+      <c r="C9" s="306" t="s">
         <v>309</v>
       </c>
-      <c r="D9" s="369"/>
-      <c r="E9" s="310">
+      <c r="D9" s="346"/>
+      <c r="E9" s="308">
         <v>8</v>
       </c>
-      <c r="F9" s="372"/>
-      <c r="G9" s="372"/>
-      <c r="H9" s="377"/>
-    </row>
-    <row r="10" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="352"/>
-      <c r="C10" s="313" t="s">
+      <c r="F9" s="348"/>
+      <c r="G9" s="348"/>
+      <c r="H9" s="353"/>
+    </row>
+    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="356"/>
+      <c r="C10" s="309" t="s">
         <v>216</v>
       </c>
-      <c r="D10" s="306" t="s">
+      <c r="D10" s="304" t="s">
         <v>217</v>
       </c>
-      <c r="E10" s="306">
+      <c r="E10" s="304">
         <v>1</v>
       </c>
-      <c r="F10" s="373"/>
-      <c r="G10" s="373"/>
-      <c r="H10" s="314" t="s">
+      <c r="F10" s="349"/>
+      <c r="G10" s="349"/>
+      <c r="H10" s="310" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="348" t="s">
+    <row r="11" spans="1:8" s="543" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="537" t="s">
         <v>250</v>
       </c>
-      <c r="C11" s="311" t="s">
+      <c r="C11" s="538" t="s">
         <v>220</v>
       </c>
-      <c r="D11" s="358" t="s">
+      <c r="D11" s="539" t="s">
         <v>234</v>
       </c>
-      <c r="E11" s="312">
+      <c r="E11" s="540">
         <v>4</v>
       </c>
-      <c r="F11" s="353" t="s">
+      <c r="F11" s="541" t="s">
         <v>230</v>
       </c>
-      <c r="G11" s="353" t="s">
+      <c r="G11" s="541" t="s">
         <v>232</v>
       </c>
-      <c r="H11" s="370" t="s">
+      <c r="H11" s="542" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="348"/>
-      <c r="C12" s="308" t="s">
+    <row r="12" spans="1:8" s="543" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="537"/>
+      <c r="C12" s="544" t="s">
         <v>221</v>
       </c>
-      <c r="D12" s="359"/>
-      <c r="E12" s="310">
+      <c r="D12" s="545"/>
+      <c r="E12" s="546">
         <v>8</v>
       </c>
-      <c r="F12" s="363"/>
-      <c r="G12" s="354"/>
-      <c r="H12" s="365"/>
-    </row>
-    <row r="13" spans="2:8" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="348"/>
-      <c r="C13" s="308" t="s">
+      <c r="F12" s="547"/>
+      <c r="G12" s="548"/>
+      <c r="H12" s="549"/>
+    </row>
+    <row r="13" spans="1:8" s="543" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="537"/>
+      <c r="C13" s="544" t="s">
         <v>222</v>
       </c>
-      <c r="D13" s="360" t="s">
+      <c r="D13" s="550" t="s">
         <v>236</v>
       </c>
-      <c r="E13" s="310">
+      <c r="E13" s="546">
         <v>4</v>
       </c>
-      <c r="F13" s="363"/>
-      <c r="G13" s="355" t="s">
+      <c r="F13" s="547"/>
+      <c r="G13" s="551" t="s">
         <v>233</v>
       </c>
-      <c r="H13" s="365" t="s">
+      <c r="H13" s="549" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="348"/>
-      <c r="C14" s="308" t="s">
+    <row r="14" spans="1:8" s="543" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="543" t="s">
+        <v>636</v>
+      </c>
+      <c r="B14" s="537"/>
+      <c r="C14" s="544" t="s">
         <v>223</v>
       </c>
-      <c r="D14" s="361"/>
-      <c r="E14" s="310">
+      <c r="D14" s="552"/>
+      <c r="E14" s="546">
         <v>8</v>
       </c>
-      <c r="F14" s="354"/>
-      <c r="G14" s="356"/>
-      <c r="H14" s="365"/>
-    </row>
-    <row r="15" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="348"/>
-      <c r="C15" s="308" t="s">
+      <c r="F14" s="548"/>
+      <c r="G14" s="553"/>
+      <c r="H14" s="549"/>
+    </row>
+    <row r="15" spans="1:8" s="543" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="537"/>
+      <c r="C15" s="544" t="s">
         <v>224</v>
       </c>
-      <c r="D15" s="355" t="s">
+      <c r="D15" s="551" t="s">
         <v>235</v>
       </c>
-      <c r="E15" s="310">
+      <c r="E15" s="546">
         <v>4</v>
       </c>
-      <c r="F15" s="353" t="s">
+      <c r="F15" s="541" t="s">
         <v>231</v>
       </c>
-      <c r="G15" s="356"/>
-      <c r="H15" s="366" t="s">
+      <c r="G15" s="553"/>
+      <c r="H15" s="554" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="349"/>
-      <c r="C16" s="303" t="s">
+    <row r="16" spans="1:8" s="543" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="555"/>
+      <c r="C16" s="556" t="s">
         <v>225</v>
       </c>
-      <c r="D16" s="357"/>
-      <c r="E16" s="305">
+      <c r="D16" s="557"/>
+      <c r="E16" s="558">
         <v>8</v>
       </c>
-      <c r="F16" s="368"/>
-      <c r="G16" s="357"/>
-      <c r="H16" s="367"/>
+      <c r="F16" s="559"/>
+      <c r="G16" s="557"/>
+      <c r="H16" s="560"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="B3:B10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G13:G16"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D3:D5"/>
     <mergeCell ref="H13:H14"/>
     <mergeCell ref="H15:H16"/>
     <mergeCell ref="F11:F14"/>
@@ -10356,14 +10389,6 @@
     <mergeCell ref="F3:G10"/>
     <mergeCell ref="H3:H6"/>
     <mergeCell ref="H7:H9"/>
-    <mergeCell ref="B11:B16"/>
-    <mergeCell ref="B3:B10"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G13:G16"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D3:D5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10397,7 +10422,7 @@
       <c r="C4" s="289" t="s">
         <v>617</v>
       </c>
-      <c r="D4" s="315" t="s">
+      <c r="D4" s="311" t="s">
         <v>1</v>
       </c>
       <c r="E4" s="279" t="s">
@@ -10432,10 +10457,10 @@
       </c>
     </row>
     <row r="5" spans="3:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C5" s="383" t="s">
+      <c r="C5" s="364" t="s">
         <v>311</v>
       </c>
-      <c r="D5" s="316" t="s">
+      <c r="D5" s="312" t="s">
         <v>313</v>
       </c>
       <c r="E5" s="294" t="s">
@@ -10470,8 +10495,8 @@
       </c>
     </row>
     <row r="6" spans="3:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="384"/>
-      <c r="D6" s="317" t="s">
+      <c r="C6" s="365"/>
+      <c r="D6" s="313" t="s">
         <v>336</v>
       </c>
       <c r="E6" s="277" t="s">
@@ -10506,8 +10531,8 @@
       </c>
     </row>
     <row r="7" spans="3:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="384"/>
-      <c r="D7" s="317" t="s">
+      <c r="C7" s="365"/>
+      <c r="D7" s="313" t="s">
         <v>378</v>
       </c>
       <c r="E7" s="277" t="s">
@@ -10542,8 +10567,8 @@
       </c>
     </row>
     <row r="8" spans="3:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="384"/>
-      <c r="D8" s="317" t="s">
+      <c r="C8" s="365"/>
+      <c r="D8" s="313" t="s">
         <v>337</v>
       </c>
       <c r="E8" s="277" t="s">
@@ -10578,8 +10603,8 @@
       </c>
     </row>
     <row r="9" spans="3:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="384"/>
-      <c r="D9" s="317" t="s">
+      <c r="C9" s="365"/>
+      <c r="D9" s="313" t="s">
         <v>338</v>
       </c>
       <c r="E9" s="277" t="s">
@@ -10614,8 +10639,8 @@
       </c>
     </row>
     <row r="10" spans="3:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="384"/>
-      <c r="D10" s="317" t="s">
+      <c r="C10" s="365"/>
+      <c r="D10" s="313" t="s">
         <v>375</v>
       </c>
       <c r="E10" s="277" t="s">
@@ -10650,8 +10675,8 @@
       </c>
     </row>
     <row r="11" spans="3:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C11" s="384"/>
-      <c r="D11" s="317" t="s">
+      <c r="C11" s="365"/>
+      <c r="D11" s="313" t="s">
         <v>339</v>
       </c>
       <c r="E11" s="277" t="s">
@@ -10686,8 +10711,8 @@
       </c>
     </row>
     <row r="12" spans="3:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C12" s="384"/>
-      <c r="D12" s="317" t="s">
+      <c r="C12" s="365"/>
+      <c r="D12" s="313" t="s">
         <v>377</v>
       </c>
       <c r="E12" s="277" t="s">
@@ -10722,8 +10747,8 @@
       </c>
     </row>
     <row r="13" spans="3:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C13" s="384"/>
-      <c r="D13" s="317" t="s">
+      <c r="C13" s="365"/>
+      <c r="D13" s="313" t="s">
         <v>340</v>
       </c>
       <c r="E13" s="277" t="s">
@@ -10758,8 +10783,8 @@
       </c>
     </row>
     <row r="14" spans="3:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="384"/>
-      <c r="D14" s="317" t="s">
+      <c r="C14" s="365"/>
+      <c r="D14" s="313" t="s">
         <v>376</v>
       </c>
       <c r="E14" s="277" t="s">
@@ -10794,17 +10819,17 @@
       </c>
     </row>
     <row r="15" spans="3:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C15" s="384"/>
-      <c r="D15" s="317" t="s">
+      <c r="C15" s="365"/>
+      <c r="D15" s="313" t="s">
         <v>362</v>
       </c>
       <c r="E15" s="277" t="s">
         <v>390</v>
       </c>
-      <c r="F15" s="378" t="s">
+      <c r="F15" s="359" t="s">
         <v>356</v>
       </c>
-      <c r="G15" s="378" t="s">
+      <c r="G15" s="359" t="s">
         <v>357</v>
       </c>
       <c r="H15" s="277" t="s">
@@ -10830,15 +10855,15 @@
       </c>
     </row>
     <row r="16" spans="3:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C16" s="384"/>
-      <c r="D16" s="317" t="s">
+      <c r="C16" s="365"/>
+      <c r="D16" s="313" t="s">
         <v>363</v>
       </c>
       <c r="E16" s="277" t="s">
         <v>390</v>
       </c>
-      <c r="F16" s="378"/>
-      <c r="G16" s="378"/>
+      <c r="F16" s="359"/>
+      <c r="G16" s="359"/>
       <c r="H16" s="277" t="s">
         <v>359</v>
       </c>
@@ -10862,15 +10887,15 @@
       </c>
     </row>
     <row r="17" spans="3:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="384"/>
-      <c r="D17" s="317" t="s">
+      <c r="C17" s="365"/>
+      <c r="D17" s="313" t="s">
         <v>364</v>
       </c>
       <c r="E17" s="277" t="s">
         <v>390</v>
       </c>
-      <c r="F17" s="378"/>
-      <c r="G17" s="378"/>
+      <c r="F17" s="359"/>
+      <c r="G17" s="359"/>
       <c r="H17" s="277" t="s">
         <v>359</v>
       </c>
@@ -10894,15 +10919,15 @@
       </c>
     </row>
     <row r="18" spans="3:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="384"/>
-      <c r="D18" s="317" t="s">
+      <c r="C18" s="365"/>
+      <c r="D18" s="313" t="s">
         <v>365</v>
       </c>
       <c r="E18" s="277" t="s">
         <v>390</v>
       </c>
-      <c r="F18" s="378"/>
-      <c r="G18" s="378"/>
+      <c r="F18" s="359"/>
+      <c r="G18" s="359"/>
       <c r="H18" s="277" t="s">
         <v>386</v>
       </c>
@@ -10926,15 +10951,15 @@
       </c>
     </row>
     <row r="19" spans="3:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C19" s="384"/>
-      <c r="D19" s="317" t="s">
+      <c r="C19" s="365"/>
+      <c r="D19" s="313" t="s">
         <v>366</v>
       </c>
       <c r="E19" s="277" t="s">
         <v>390</v>
       </c>
-      <c r="F19" s="378"/>
-      <c r="G19" s="378"/>
+      <c r="F19" s="359"/>
+      <c r="G19" s="359"/>
       <c r="H19" s="277" t="s">
         <v>360</v>
       </c>
@@ -10958,15 +10983,15 @@
       </c>
     </row>
     <row r="20" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C20" s="385"/>
-      <c r="D20" s="318" t="s">
+      <c r="C20" s="366"/>
+      <c r="D20" s="314" t="s">
         <v>367</v>
       </c>
       <c r="E20" s="297" t="s">
         <v>391</v>
       </c>
-      <c r="F20" s="379"/>
-      <c r="G20" s="379"/>
+      <c r="F20" s="360"/>
+      <c r="G20" s="360"/>
       <c r="H20" s="297" t="s">
         <v>360</v>
       </c>
@@ -10990,10 +11015,10 @@
       </c>
     </row>
     <row r="21" spans="3:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C21" s="380" t="s">
+      <c r="C21" s="361" t="s">
         <v>312</v>
       </c>
-      <c r="D21" s="319" t="s">
+      <c r="D21" s="315" t="s">
         <v>341</v>
       </c>
       <c r="E21" s="291" t="s">
@@ -11023,13 +11048,13 @@
       <c r="M21" s="291" t="s">
         <v>316</v>
       </c>
-      <c r="N21" s="322" t="s">
+      <c r="N21" s="318" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="22" spans="3:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C22" s="381"/>
-      <c r="D22" s="320" t="s">
+      <c r="C22" s="362"/>
+      <c r="D22" s="316" t="s">
         <v>351</v>
       </c>
       <c r="E22" s="278" t="s">
@@ -11059,13 +11084,13 @@
       <c r="M22" s="278" t="s">
         <v>316</v>
       </c>
-      <c r="N22" s="323" t="s">
+      <c r="N22" s="319" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="23" spans="3:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C23" s="381"/>
-      <c r="D23" s="320" t="s">
+      <c r="C23" s="362"/>
+      <c r="D23" s="316" t="s">
         <v>352</v>
       </c>
       <c r="E23" s="278" t="s">
@@ -11095,13 +11120,13 @@
       <c r="M23" s="278" t="s">
         <v>316</v>
       </c>
-      <c r="N23" s="323" t="s">
+      <c r="N23" s="319" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="24" spans="3:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C24" s="381"/>
-      <c r="D24" s="320" t="s">
+      <c r="C24" s="362"/>
+      <c r="D24" s="316" t="s">
         <v>353</v>
       </c>
       <c r="E24" s="278" t="s">
@@ -11131,13 +11156,13 @@
       <c r="M24" s="278" t="s">
         <v>316</v>
       </c>
-      <c r="N24" s="323" t="s">
+      <c r="N24" s="319" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="25" spans="3:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C25" s="381"/>
-      <c r="D25" s="320" t="s">
+      <c r="C25" s="362"/>
+      <c r="D25" s="316" t="s">
         <v>347</v>
       </c>
       <c r="E25" s="278" t="s">
@@ -11167,13 +11192,13 @@
       <c r="M25" s="278" t="s">
         <v>316</v>
       </c>
-      <c r="N25" s="323" t="s">
+      <c r="N25" s="319" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="26" spans="3:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C26" s="381"/>
-      <c r="D26" s="320" t="s">
+      <c r="C26" s="362"/>
+      <c r="D26" s="316" t="s">
         <v>348</v>
       </c>
       <c r="E26" s="278" t="s">
@@ -11203,13 +11228,13 @@
       <c r="M26" s="278" t="s">
         <v>316</v>
       </c>
-      <c r="N26" s="323" t="s">
+      <c r="N26" s="319" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="27" spans="3:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C27" s="381"/>
-      <c r="D27" s="320" t="s">
+      <c r="C27" s="362"/>
+      <c r="D27" s="316" t="s">
         <v>354</v>
       </c>
       <c r="E27" s="278" t="s">
@@ -11239,13 +11264,13 @@
       <c r="M27" s="278" t="s">
         <v>316</v>
       </c>
-      <c r="N27" s="323" t="s">
+      <c r="N27" s="319" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="28" spans="3:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C28" s="382"/>
-      <c r="D28" s="321" t="s">
+      <c r="C28" s="363"/>
+      <c r="D28" s="317" t="s">
         <v>355</v>
       </c>
       <c r="E28" s="283" t="s">
@@ -11358,42 +11383,42 @@
       <c r="L3" s="6"/>
     </row>
     <row r="4" spans="2:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="423" t="s">
+      <c r="B4" s="501" t="s">
         <v>304</v>
       </c>
-      <c r="C4" s="409" t="s">
+      <c r="C4" s="394" t="s">
         <v>90</v>
       </c>
-      <c r="D4" s="411" t="s">
+      <c r="D4" s="493" t="s">
         <v>91</v>
       </c>
-      <c r="E4" s="413" t="s">
+      <c r="E4" s="495" t="s">
         <v>92</v>
       </c>
-      <c r="F4" s="413"/>
+      <c r="F4" s="495"/>
       <c r="G4" s="207" t="s">
         <v>93</v>
       </c>
-      <c r="H4" s="425" t="s">
+      <c r="H4" s="503" t="s">
         <v>94</v>
       </c>
-      <c r="I4" s="436" t="s">
+      <c r="I4" s="367" t="s">
         <v>244</v>
       </c>
-      <c r="J4" s="436" t="s">
+      <c r="J4" s="367" t="s">
         <v>243</v>
       </c>
-      <c r="K4" s="436" t="s">
+      <c r="K4" s="367" t="s">
         <v>531</v>
       </c>
-      <c r="L4" s="434" t="s">
+      <c r="L4" s="508" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="5" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="424"/>
-      <c r="C5" s="410"/>
-      <c r="D5" s="412"/>
+      <c r="B5" s="502"/>
+      <c r="C5" s="395"/>
+      <c r="D5" s="494"/>
       <c r="E5" s="243" t="s">
         <v>95</v>
       </c>
@@ -11403,14 +11428,14 @@
       <c r="G5" s="208" t="s">
         <v>296</v>
       </c>
-      <c r="H5" s="426"/>
-      <c r="I5" s="437"/>
-      <c r="J5" s="437"/>
-      <c r="K5" s="437"/>
-      <c r="L5" s="435"/>
+      <c r="H5" s="504"/>
+      <c r="I5" s="368"/>
+      <c r="J5" s="368"/>
+      <c r="K5" s="368"/>
+      <c r="L5" s="509"/>
     </row>
     <row r="6" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="438" t="s">
+      <c r="B6" s="385" t="s">
         <v>255</v>
       </c>
       <c r="C6" s="134" t="s">
@@ -11441,23 +11466,23 @@
       <c r="L6" s="226"/>
     </row>
     <row r="7" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="439"/>
+      <c r="B7" s="386"/>
       <c r="C7" s="135" t="s">
         <v>100</v>
       </c>
-      <c r="D7" s="418" t="s">
+      <c r="D7" s="498" t="s">
         <v>101</v>
       </c>
-      <c r="E7" s="406">
+      <c r="E7" s="417">
         <v>32</v>
       </c>
-      <c r="F7" s="406">
+      <c r="F7" s="417">
         <v>16</v>
       </c>
-      <c r="G7" s="406" t="s">
+      <c r="G7" s="417" t="s">
         <v>277</v>
       </c>
-      <c r="H7" s="406" t="s">
+      <c r="H7" s="417" t="s">
         <v>102</v>
       </c>
       <c r="I7" s="64"/>
@@ -11468,15 +11493,15 @@
       <c r="L7" s="227"/>
     </row>
     <row r="8" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="439"/>
+      <c r="B8" s="386"/>
       <c r="C8" s="135" t="s">
         <v>103</v>
       </c>
-      <c r="D8" s="418"/>
-      <c r="E8" s="406"/>
-      <c r="F8" s="406"/>
-      <c r="G8" s="406"/>
-      <c r="H8" s="406"/>
+      <c r="D8" s="498"/>
+      <c r="E8" s="417"/>
+      <c r="F8" s="417"/>
+      <c r="G8" s="417"/>
+      <c r="H8" s="417"/>
       <c r="I8" s="64"/>
       <c r="J8" s="195"/>
       <c r="K8" s="195" t="s">
@@ -11485,11 +11510,11 @@
       <c r="L8" s="227"/>
     </row>
     <row r="9" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="439"/>
+      <c r="B9" s="386"/>
       <c r="C9" s="135" t="s">
         <v>98</v>
       </c>
-      <c r="D9" s="390" t="s">
+      <c r="D9" s="457" t="s">
         <v>572</v>
       </c>
       <c r="E9" s="64">
@@ -11510,53 +11535,53 @@
       <c r="L9" s="227"/>
     </row>
     <row r="10" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="439"/>
+      <c r="B10" s="386"/>
       <c r="C10" s="135" t="s">
         <v>107</v>
       </c>
-      <c r="D10" s="391"/>
+      <c r="D10" s="458"/>
       <c r="E10" s="155"/>
       <c r="F10" s="155">
         <v>4</v>
       </c>
-      <c r="G10" s="406" t="s">
+      <c r="G10" s="417" t="s">
         <v>260</v>
       </c>
-      <c r="H10" s="388" t="s">
+      <c r="H10" s="414" t="s">
         <v>102</v>
       </c>
       <c r="I10" s="155"/>
-      <c r="J10" s="388" t="s">
+      <c r="J10" s="414" t="s">
         <v>97</v>
       </c>
-      <c r="K10" s="388" t="s">
+      <c r="K10" s="414" t="s">
         <v>533</v>
       </c>
-      <c r="L10" s="427"/>
+      <c r="L10" s="505"/>
     </row>
     <row r="11" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="439"/>
+      <c r="B11" s="386"/>
       <c r="C11" s="135" t="s">
         <v>108</v>
       </c>
-      <c r="D11" s="391"/>
+      <c r="D11" s="458"/>
       <c r="E11" s="155"/>
       <c r="F11" s="155">
         <v>16</v>
       </c>
-      <c r="G11" s="406"/>
-      <c r="H11" s="389"/>
+      <c r="G11" s="417"/>
+      <c r="H11" s="415"/>
       <c r="I11" s="155"/>
-      <c r="J11" s="389"/>
-      <c r="K11" s="389"/>
-      <c r="L11" s="428"/>
+      <c r="J11" s="415"/>
+      <c r="K11" s="415"/>
+      <c r="L11" s="492"/>
     </row>
     <row r="12" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="439"/>
+      <c r="B12" s="386"/>
       <c r="C12" s="135" t="s">
         <v>110</v>
       </c>
-      <c r="D12" s="391"/>
+      <c r="D12" s="458"/>
       <c r="E12" s="155"/>
       <c r="F12" s="155">
         <v>4</v>
@@ -11564,20 +11589,20 @@
       <c r="G12" s="155" t="s">
         <v>275</v>
       </c>
-      <c r="H12" s="389"/>
+      <c r="H12" s="415"/>
       <c r="I12" s="155" t="s">
         <v>97</v>
       </c>
-      <c r="J12" s="389"/>
-      <c r="K12" s="389"/>
-      <c r="L12" s="428"/>
+      <c r="J12" s="415"/>
+      <c r="K12" s="415"/>
+      <c r="L12" s="492"/>
     </row>
     <row r="13" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="439"/>
+      <c r="B13" s="386"/>
       <c r="C13" s="135" t="s">
         <v>111</v>
       </c>
-      <c r="D13" s="391"/>
+      <c r="D13" s="458"/>
       <c r="E13" s="155"/>
       <c r="F13" s="155">
         <v>4</v>
@@ -11585,20 +11610,20 @@
       <c r="G13" s="155" t="s">
         <v>248</v>
       </c>
-      <c r="H13" s="389"/>
+      <c r="H13" s="415"/>
       <c r="I13" s="155" t="s">
         <v>97</v>
       </c>
-      <c r="J13" s="389"/>
-      <c r="K13" s="389"/>
-      <c r="L13" s="428"/>
+      <c r="J13" s="415"/>
+      <c r="K13" s="415"/>
+      <c r="L13" s="492"/>
     </row>
     <row r="14" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="439"/>
+      <c r="B14" s="386"/>
       <c r="C14" s="135" t="s">
         <v>105</v>
       </c>
-      <c r="D14" s="391"/>
+      <c r="D14" s="458"/>
       <c r="E14" s="64">
         <v>32</v>
       </c>
@@ -11608,7 +11633,7 @@
       <c r="G14" s="64">
         <v>500</v>
       </c>
-      <c r="H14" s="388" t="s">
+      <c r="H14" s="414" t="s">
         <v>104</v>
       </c>
       <c r="I14" s="64"/>
@@ -11621,11 +11646,11 @@
       <c r="L14" s="227"/>
     </row>
     <row r="15" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="439"/>
+      <c r="B15" s="386"/>
       <c r="C15" s="135" t="s">
         <v>457</v>
       </c>
-      <c r="D15" s="391"/>
+      <c r="D15" s="458"/>
       <c r="E15" s="155"/>
       <c r="F15" s="155">
         <v>8</v>
@@ -11633,7 +11658,7 @@
       <c r="G15" s="155" t="s">
         <v>458</v>
       </c>
-      <c r="H15" s="389"/>
+      <c r="H15" s="415"/>
       <c r="I15" s="155" t="s">
         <v>97</v>
       </c>
@@ -11646,11 +11671,11 @@
       <c r="L15" s="227"/>
     </row>
     <row r="16" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="439"/>
+      <c r="B16" s="386"/>
       <c r="C16" s="135" t="s">
         <v>456</v>
       </c>
-      <c r="D16" s="391"/>
+      <c r="D16" s="458"/>
       <c r="E16" s="155"/>
       <c r="F16" s="155">
         <v>16</v>
@@ -11658,7 +11683,7 @@
       <c r="G16" s="155" t="s">
         <v>267</v>
       </c>
-      <c r="H16" s="389"/>
+      <c r="H16" s="415"/>
       <c r="I16" s="155"/>
       <c r="J16" s="195" t="s">
         <v>126</v>
@@ -11669,11 +11694,11 @@
       <c r="L16" s="227"/>
     </row>
     <row r="17" spans="2:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="439"/>
+      <c r="B17" s="386"/>
       <c r="C17" s="135" t="s">
         <v>118</v>
       </c>
-      <c r="D17" s="420"/>
+      <c r="D17" s="459"/>
       <c r="E17" s="64"/>
       <c r="F17" s="64">
         <v>4</v>
@@ -11681,7 +11706,7 @@
       <c r="G17" s="64" t="s">
         <v>274</v>
       </c>
-      <c r="H17" s="429"/>
+      <c r="H17" s="421"/>
       <c r="I17" s="64" t="s">
         <v>97</v>
       </c>
@@ -11694,11 +11719,11 @@
       <c r="L17" s="227"/>
     </row>
     <row r="18" spans="2:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="439"/>
+      <c r="B18" s="386"/>
       <c r="C18" s="135" t="s">
         <v>109</v>
       </c>
-      <c r="D18" s="421" t="s">
+      <c r="D18" s="465" t="s">
         <v>115</v>
       </c>
       <c r="E18" s="195">
@@ -11719,11 +11744,11 @@
       <c r="L18" s="227"/>
     </row>
     <row r="19" spans="2:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="439"/>
+      <c r="B19" s="386"/>
       <c r="C19" s="135" t="s">
         <v>459</v>
       </c>
-      <c r="D19" s="390"/>
+      <c r="D19" s="457"/>
       <c r="E19" s="201"/>
       <c r="F19" s="201">
         <v>8</v>
@@ -11731,7 +11756,7 @@
       <c r="G19" s="195" t="s">
         <v>458</v>
       </c>
-      <c r="H19" s="388" t="s">
+      <c r="H19" s="414" t="s">
         <v>104</v>
       </c>
       <c r="I19" s="195" t="s">
@@ -11746,11 +11771,11 @@
       <c r="L19" s="227"/>
     </row>
     <row r="20" spans="2:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="439"/>
+      <c r="B20" s="386"/>
       <c r="C20" s="135" t="s">
         <v>114</v>
       </c>
-      <c r="D20" s="421"/>
+      <c r="D20" s="465"/>
       <c r="E20" s="195"/>
       <c r="F20" s="195">
         <v>4</v>
@@ -11758,7 +11783,7 @@
       <c r="G20" s="195" t="s">
         <v>266</v>
       </c>
-      <c r="H20" s="429"/>
+      <c r="H20" s="421"/>
       <c r="I20" s="195" t="s">
         <v>97</v>
       </c>
@@ -11771,7 +11796,7 @@
       <c r="L20" s="227"/>
     </row>
     <row r="21" spans="2:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="439"/>
+      <c r="B21" s="386"/>
       <c r="C21" s="217" t="s">
         <v>460</v>
       </c>
@@ -11796,7 +11821,7 @@
       <c r="L21" s="242"/>
     </row>
     <row r="22" spans="2:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="439"/>
+      <c r="B22" s="386"/>
       <c r="C22" s="183" t="s">
         <v>119</v>
       </c>
@@ -11807,23 +11832,23 @@
         <v>3</v>
       </c>
       <c r="F22" s="184"/>
-      <c r="G22" s="481" t="s">
+      <c r="G22" s="416" t="s">
         <v>272</v>
       </c>
-      <c r="H22" s="481" t="s">
+      <c r="H22" s="416" t="s">
         <v>104</v>
       </c>
       <c r="I22" s="184"/>
-      <c r="J22" s="481" t="s">
+      <c r="J22" s="416" t="s">
         <v>97</v>
       </c>
-      <c r="K22" s="514" t="s">
+      <c r="K22" s="430" t="s">
         <v>533</v>
       </c>
-      <c r="L22" s="441"/>
+      <c r="L22" s="510"/>
     </row>
     <row r="23" spans="2:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="439"/>
+      <c r="B23" s="386"/>
       <c r="C23" s="135" t="s">
         <v>112</v>
       </c>
@@ -11834,17 +11859,17 @@
       <c r="F23" s="155">
         <v>3</v>
       </c>
-      <c r="G23" s="406"/>
-      <c r="H23" s="406"/>
+      <c r="G23" s="417"/>
+      <c r="H23" s="417"/>
       <c r="I23" s="155" t="s">
         <v>97</v>
       </c>
-      <c r="J23" s="406"/>
-      <c r="K23" s="406"/>
-      <c r="L23" s="442"/>
+      <c r="J23" s="417"/>
+      <c r="K23" s="417"/>
+      <c r="L23" s="485"/>
     </row>
     <row r="24" spans="2:15" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="440"/>
+      <c r="B24" s="387"/>
       <c r="C24" s="138" t="s">
         <v>120</v>
       </c>
@@ -11855,21 +11880,21 @@
         <v>3</v>
       </c>
       <c r="F24" s="157"/>
-      <c r="G24" s="407"/>
-      <c r="H24" s="407"/>
+      <c r="G24" s="418"/>
+      <c r="H24" s="418"/>
       <c r="I24" s="157"/>
-      <c r="J24" s="407"/>
-      <c r="K24" s="407"/>
-      <c r="L24" s="443"/>
+      <c r="J24" s="418"/>
+      <c r="K24" s="418"/>
+      <c r="L24" s="511"/>
     </row>
     <row r="25" spans="2:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="444" t="s">
+      <c r="B25" s="442" t="s">
         <v>256</v>
       </c>
       <c r="C25" s="139" t="s">
         <v>122</v>
       </c>
-      <c r="D25" s="467" t="s">
+      <c r="D25" s="483" t="s">
         <v>123</v>
       </c>
       <c r="E25" s="68">
@@ -11890,11 +11915,11 @@
       <c r="L25" s="229"/>
     </row>
     <row r="26" spans="2:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="445"/>
+      <c r="B26" s="466"/>
       <c r="C26" s="140" t="s">
         <v>124</v>
       </c>
-      <c r="D26" s="467"/>
+      <c r="D26" s="483"/>
       <c r="E26" s="83"/>
       <c r="F26" s="83">
         <v>2</v>
@@ -11913,7 +11938,7 @@
       <c r="L26" s="230"/>
     </row>
     <row r="27" spans="2:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="445"/>
+      <c r="B27" s="466"/>
       <c r="C27" s="141" t="s">
         <v>125</v>
       </c>
@@ -11924,25 +11949,25 @@
       <c r="F27" s="84">
         <v>4</v>
       </c>
-      <c r="G27" s="417" t="s">
+      <c r="G27" s="419" t="s">
         <v>271</v>
       </c>
-      <c r="H27" s="417" t="s">
+      <c r="H27" s="419" t="s">
         <v>127</v>
       </c>
-      <c r="I27" s="417" t="s">
+      <c r="I27" s="419" t="s">
         <v>126</v>
       </c>
-      <c r="J27" s="417" t="s">
+      <c r="J27" s="419" t="s">
         <v>126</v>
       </c>
-      <c r="K27" s="417" t="s">
+      <c r="K27" s="419" t="s">
         <v>533</v>
       </c>
-      <c r="L27" s="414"/>
+      <c r="L27" s="496"/>
     </row>
     <row r="28" spans="2:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="445"/>
+      <c r="B28" s="466"/>
       <c r="C28" s="142" t="s">
         <v>128</v>
       </c>
@@ -11953,16 +11978,16 @@
       <c r="F28" s="65">
         <v>3</v>
       </c>
-      <c r="G28" s="395"/>
-      <c r="H28" s="395"/>
-      <c r="I28" s="395"/>
-      <c r="J28" s="395"/>
-      <c r="K28" s="395"/>
-      <c r="L28" s="415"/>
+      <c r="G28" s="403"/>
+      <c r="H28" s="403"/>
+      <c r="I28" s="403"/>
+      <c r="J28" s="403"/>
+      <c r="K28" s="403"/>
+      <c r="L28" s="487"/>
       <c r="O28" s="8"/>
     </row>
     <row r="29" spans="2:15" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="446"/>
+      <c r="B29" s="467"/>
       <c r="C29" s="143" t="s">
         <v>129</v>
       </c>
@@ -11973,21 +11998,21 @@
       <c r="F29" s="85">
         <v>3</v>
       </c>
-      <c r="G29" s="408"/>
-      <c r="H29" s="408"/>
-      <c r="I29" s="408"/>
-      <c r="J29" s="408"/>
-      <c r="K29" s="408"/>
-      <c r="L29" s="416"/>
+      <c r="G29" s="420"/>
+      <c r="H29" s="420"/>
+      <c r="I29" s="420"/>
+      <c r="J29" s="420"/>
+      <c r="K29" s="420"/>
+      <c r="L29" s="497"/>
     </row>
     <row r="30" spans="2:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="447" t="s">
+      <c r="B30" s="468" t="s">
         <v>257</v>
       </c>
       <c r="C30" s="134" t="s">
         <v>465</v>
       </c>
-      <c r="D30" s="419" t="s">
+      <c r="D30" s="499" t="s">
         <v>130</v>
       </c>
       <c r="E30" s="69"/>
@@ -11997,7 +12022,7 @@
       <c r="G30" s="69">
         <v>14</v>
       </c>
-      <c r="H30" s="430" t="s">
+      <c r="H30" s="506" t="s">
         <v>104</v>
       </c>
       <c r="I30" s="69"/>
@@ -12008,11 +12033,11 @@
       <c r="L30" s="226"/>
     </row>
     <row r="31" spans="2:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="448"/>
+      <c r="B31" s="469"/>
       <c r="C31" s="145" t="s">
         <v>106</v>
       </c>
-      <c r="D31" s="420"/>
+      <c r="D31" s="459"/>
       <c r="E31" s="154"/>
       <c r="F31" s="154">
         <v>4</v>
@@ -12020,7 +12045,7 @@
       <c r="G31" s="154">
         <v>14</v>
       </c>
-      <c r="H31" s="431"/>
+      <c r="H31" s="507"/>
       <c r="I31" s="154"/>
       <c r="J31" s="194"/>
       <c r="K31" s="194" t="s">
@@ -12029,11 +12054,11 @@
       <c r="L31" s="231"/>
     </row>
     <row r="32" spans="2:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="449"/>
+      <c r="B32" s="470"/>
       <c r="C32" s="135" t="s">
         <v>131</v>
       </c>
-      <c r="D32" s="421"/>
+      <c r="D32" s="465"/>
       <c r="E32" s="64"/>
       <c r="F32" s="64">
         <v>8</v>
@@ -12041,7 +12066,7 @@
       <c r="G32" s="64" t="s">
         <v>259</v>
       </c>
-      <c r="H32" s="431"/>
+      <c r="H32" s="507"/>
       <c r="I32" s="64" t="s">
         <v>97</v>
       </c>
@@ -12054,11 +12079,11 @@
       <c r="L32" s="227"/>
     </row>
     <row r="33" spans="2:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="449"/>
+      <c r="B33" s="470"/>
       <c r="C33" s="135" t="s">
         <v>132</v>
       </c>
-      <c r="D33" s="421"/>
+      <c r="D33" s="465"/>
       <c r="E33" s="64"/>
       <c r="F33" s="64">
         <v>16</v>
@@ -12066,7 +12091,7 @@
       <c r="G33" s="64">
         <v>75</v>
       </c>
-      <c r="H33" s="431"/>
+      <c r="H33" s="507"/>
       <c r="I33" s="64"/>
       <c r="J33" s="195"/>
       <c r="K33" s="194" t="s">
@@ -12075,11 +12100,11 @@
       <c r="L33" s="227"/>
     </row>
     <row r="34" spans="2:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="449"/>
+      <c r="B34" s="470"/>
       <c r="C34" s="136" t="s">
         <v>133</v>
       </c>
-      <c r="D34" s="390"/>
+      <c r="D34" s="457"/>
       <c r="E34" s="75"/>
       <c r="F34" s="75">
         <v>16</v>
@@ -12087,7 +12112,7 @@
       <c r="G34" s="75">
         <v>68</v>
       </c>
-      <c r="H34" s="431"/>
+      <c r="H34" s="507"/>
       <c r="I34" s="75"/>
       <c r="J34" s="201"/>
       <c r="K34" s="194" t="s">
@@ -12096,21 +12121,21 @@
       <c r="L34" s="228"/>
     </row>
     <row r="35" spans="2:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="449"/>
+      <c r="B35" s="470"/>
       <c r="C35" s="137" t="s">
         <v>134</v>
       </c>
-      <c r="D35" s="422" t="s">
+      <c r="D35" s="500" t="s">
         <v>135</v>
       </c>
       <c r="E35" s="76"/>
       <c r="F35" s="76">
         <v>8</v>
       </c>
-      <c r="G35" s="432">
+      <c r="G35" s="460">
         <v>400</v>
       </c>
-      <c r="H35" s="432" t="s">
+      <c r="H35" s="460" t="s">
         <v>104</v>
       </c>
       <c r="I35" s="76"/>
@@ -12123,17 +12148,17 @@
       <c r="N35" s="7"/>
     </row>
     <row r="36" spans="2:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="449"/>
+      <c r="B36" s="470"/>
       <c r="C36" s="135" t="s">
         <v>136</v>
       </c>
-      <c r="D36" s="421"/>
+      <c r="D36" s="465"/>
       <c r="E36" s="64"/>
       <c r="F36" s="64">
         <v>4</v>
       </c>
-      <c r="G36" s="389"/>
-      <c r="H36" s="389"/>
+      <c r="G36" s="415"/>
+      <c r="H36" s="415"/>
       <c r="I36" s="64"/>
       <c r="J36" s="195"/>
       <c r="K36" s="194" t="s">
@@ -12142,7 +12167,7 @@
       <c r="L36" s="227"/>
     </row>
     <row r="37" spans="2:14" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="450"/>
+      <c r="B37" s="471"/>
       <c r="C37" s="138" t="s">
         <v>137</v>
       </c>
@@ -12153,8 +12178,8 @@
       <c r="F37" s="66">
         <v>8</v>
       </c>
-      <c r="G37" s="433"/>
-      <c r="H37" s="433"/>
+      <c r="G37" s="432"/>
+      <c r="H37" s="432"/>
       <c r="I37" s="66"/>
       <c r="J37" s="196"/>
       <c r="K37" s="194" t="s">
@@ -12163,23 +12188,23 @@
       <c r="L37" s="233"/>
     </row>
     <row r="38" spans="2:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="451" t="s">
+      <c r="B38" s="472" t="s">
         <v>258</v>
       </c>
       <c r="C38" s="144" t="s">
         <v>134</v>
       </c>
-      <c r="D38" s="464" t="s">
+      <c r="D38" s="481" t="s">
         <v>139</v>
       </c>
       <c r="E38" s="86"/>
       <c r="F38" s="86">
         <v>8</v>
       </c>
-      <c r="G38" s="466">
+      <c r="G38" s="461">
         <v>400</v>
       </c>
-      <c r="H38" s="480" t="s">
+      <c r="H38" s="433" t="s">
         <v>104</v>
       </c>
       <c r="I38" s="86"/>
@@ -12190,17 +12215,17 @@
       <c r="L38" s="234"/>
     </row>
     <row r="39" spans="2:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="445"/>
+      <c r="B39" s="466"/>
       <c r="C39" s="142" t="s">
         <v>136</v>
       </c>
-      <c r="D39" s="465"/>
+      <c r="D39" s="482"/>
       <c r="E39" s="65"/>
       <c r="F39" s="65">
         <v>4</v>
       </c>
-      <c r="G39" s="396"/>
-      <c r="H39" s="395"/>
+      <c r="G39" s="428"/>
+      <c r="H39" s="403"/>
       <c r="I39" s="65"/>
       <c r="J39" s="192"/>
       <c r="K39" s="192" t="s">
@@ -12209,7 +12234,7 @@
       <c r="L39" s="235"/>
     </row>
     <row r="40" spans="2:14" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="452"/>
+      <c r="B40" s="443"/>
       <c r="C40" s="143" t="s">
         <v>137</v>
       </c>
@@ -12220,8 +12245,8 @@
       <c r="F40" s="85">
         <v>8</v>
       </c>
-      <c r="G40" s="400"/>
-      <c r="H40" s="408"/>
+      <c r="G40" s="429"/>
+      <c r="H40" s="420"/>
       <c r="I40" s="85"/>
       <c r="J40" s="193"/>
       <c r="K40" s="193" t="s">
@@ -12230,7 +12255,7 @@
       <c r="L40" s="236"/>
     </row>
     <row r="41" spans="2:14" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B41" s="468" t="s">
+      <c r="B41" s="434" t="s">
         <v>246</v>
       </c>
       <c r="C41" s="145" t="s">
@@ -12240,24 +12265,24 @@
         <v>466</v>
       </c>
       <c r="E41" s="67"/>
-      <c r="F41" s="429">
+      <c r="F41" s="421">
         <v>8</v>
       </c>
-      <c r="G41" s="429" t="s">
+      <c r="G41" s="421" t="s">
         <v>267</v>
       </c>
-      <c r="H41" s="429"/>
+      <c r="H41" s="421"/>
       <c r="I41" s="67"/>
-      <c r="J41" s="429" t="s">
+      <c r="J41" s="421" t="s">
         <v>97</v>
       </c>
-      <c r="K41" s="429" t="s">
+      <c r="K41" s="421" t="s">
         <v>533</v>
       </c>
-      <c r="L41" s="471"/>
+      <c r="L41" s="484"/>
     </row>
     <row r="42" spans="2:14" s="9" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="469"/>
+      <c r="B42" s="435"/>
       <c r="C42" s="135" t="s">
         <v>142</v>
       </c>
@@ -12265,16 +12290,16 @@
         <v>467</v>
       </c>
       <c r="E42" s="64"/>
-      <c r="F42" s="406"/>
-      <c r="G42" s="406"/>
-      <c r="H42" s="406"/>
+      <c r="F42" s="417"/>
+      <c r="G42" s="417"/>
+      <c r="H42" s="417"/>
       <c r="I42" s="64"/>
-      <c r="J42" s="406"/>
-      <c r="K42" s="406"/>
-      <c r="L42" s="442"/>
+      <c r="J42" s="417"/>
+      <c r="K42" s="417"/>
+      <c r="L42" s="485"/>
     </row>
     <row r="43" spans="2:14" s="9" customFormat="1" ht="55.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="470"/>
+      <c r="B43" s="436"/>
       <c r="C43" s="136" t="s">
         <v>143</v>
       </c>
@@ -12288,7 +12313,7 @@
       <c r="G43" s="75" t="s">
         <v>266</v>
       </c>
-      <c r="H43" s="388"/>
+      <c r="H43" s="414"/>
       <c r="I43" s="75"/>
       <c r="J43" s="201" t="s">
         <v>97</v>
@@ -12299,13 +12324,13 @@
       <c r="L43" s="228"/>
     </row>
     <row r="44" spans="2:14" s="9" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="459" t="s">
+      <c r="B44" s="437" t="s">
         <v>251</v>
       </c>
       <c r="C44" s="144" t="s">
         <v>145</v>
       </c>
-      <c r="D44" s="462" t="s">
+      <c r="D44" s="479" t="s">
         <v>252</v>
       </c>
       <c r="E44" s="86"/>
@@ -12315,24 +12340,24 @@
       <c r="G44" s="86" t="s">
         <v>265</v>
       </c>
-      <c r="H44" s="480" t="s">
+      <c r="H44" s="433" t="s">
         <v>104</v>
       </c>
       <c r="I44" s="86"/>
-      <c r="J44" s="510" t="s">
+      <c r="J44" s="422" t="s">
         <v>249</v>
       </c>
-      <c r="K44" s="510" t="s">
+      <c r="K44" s="422" t="s">
         <v>533</v>
       </c>
-      <c r="L44" s="456"/>
+      <c r="L44" s="476"/>
     </row>
     <row r="45" spans="2:14" s="9" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="460"/>
+      <c r="B45" s="438"/>
       <c r="C45" s="142" t="s">
         <v>146</v>
       </c>
-      <c r="D45" s="463"/>
+      <c r="D45" s="480"/>
       <c r="E45" s="65"/>
       <c r="F45" s="65">
         <v>3</v>
@@ -12340,14 +12365,14 @@
       <c r="G45" s="65" t="s">
         <v>264</v>
       </c>
-      <c r="H45" s="395"/>
+      <c r="H45" s="403"/>
       <c r="I45" s="65"/>
-      <c r="J45" s="511"/>
-      <c r="K45" s="511"/>
-      <c r="L45" s="457"/>
+      <c r="J45" s="423"/>
+      <c r="K45" s="423"/>
+      <c r="L45" s="477"/>
     </row>
     <row r="46" spans="2:14" s="9" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="461"/>
+      <c r="B46" s="439"/>
       <c r="C46" s="143" t="s">
         <v>147</v>
       </c>
@@ -12361,14 +12386,14 @@
       <c r="G46" s="85" t="s">
         <v>263</v>
       </c>
-      <c r="H46" s="408"/>
+      <c r="H46" s="420"/>
       <c r="I46" s="85"/>
-      <c r="J46" s="512"/>
-      <c r="K46" s="512"/>
-      <c r="L46" s="458"/>
+      <c r="J46" s="424"/>
+      <c r="K46" s="424"/>
+      <c r="L46" s="478"/>
     </row>
     <row r="47" spans="2:14" s="9" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="438" t="s">
+      <c r="B47" s="385" t="s">
         <v>245</v>
       </c>
       <c r="C47" s="134" t="s">
@@ -12388,20 +12413,20 @@
         <v>127</v>
       </c>
       <c r="I47" s="69"/>
-      <c r="J47" s="513" t="s">
+      <c r="J47" s="425" t="s">
         <v>97</v>
       </c>
-      <c r="K47" s="513" t="s">
+      <c r="K47" s="425" t="s">
         <v>533</v>
       </c>
-      <c r="L47" s="476"/>
+      <c r="L47" s="491"/>
     </row>
     <row r="48" spans="2:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="439"/>
+      <c r="B48" s="386"/>
       <c r="C48" s="135" t="s">
         <v>468</v>
       </c>
-      <c r="D48" s="390" t="s">
+      <c r="D48" s="457" t="s">
         <v>150</v>
       </c>
       <c r="E48" s="158"/>
@@ -12411,20 +12436,20 @@
       <c r="G48" s="158" t="s">
         <v>469</v>
       </c>
-      <c r="H48" s="388" t="s">
+      <c r="H48" s="414" t="s">
         <v>268</v>
       </c>
       <c r="I48" s="154"/>
-      <c r="J48" s="389"/>
-      <c r="K48" s="389"/>
-      <c r="L48" s="428"/>
+      <c r="J48" s="415"/>
+      <c r="K48" s="415"/>
+      <c r="L48" s="492"/>
     </row>
     <row r="49" spans="2:12" s="9" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="439"/>
+      <c r="B49" s="386"/>
       <c r="C49" s="135" t="s">
         <v>149</v>
       </c>
-      <c r="D49" s="391"/>
+      <c r="D49" s="458"/>
       <c r="E49" s="156"/>
       <c r="F49" s="156">
         <v>4</v>
@@ -12432,18 +12457,18 @@
       <c r="G49" s="156" t="s">
         <v>260</v>
       </c>
-      <c r="H49" s="389"/>
+      <c r="H49" s="415"/>
       <c r="I49" s="64"/>
-      <c r="J49" s="389"/>
-      <c r="K49" s="389"/>
-      <c r="L49" s="428"/>
+      <c r="J49" s="415"/>
+      <c r="K49" s="415"/>
+      <c r="L49" s="492"/>
     </row>
     <row r="50" spans="2:12" s="9" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="439"/>
+      <c r="B50" s="386"/>
       <c r="C50" s="136" t="s">
         <v>151</v>
       </c>
-      <c r="D50" s="391"/>
+      <c r="D50" s="458"/>
       <c r="E50" s="75"/>
       <c r="F50" s="75">
         <v>16</v>
@@ -12451,14 +12476,14 @@
       <c r="G50" s="75" t="s">
         <v>261</v>
       </c>
-      <c r="H50" s="389"/>
+      <c r="H50" s="415"/>
       <c r="I50" s="75"/>
-      <c r="J50" s="389"/>
-      <c r="K50" s="389"/>
-      <c r="L50" s="428"/>
+      <c r="J50" s="415"/>
+      <c r="K50" s="415"/>
+      <c r="L50" s="492"/>
     </row>
     <row r="51" spans="2:12" s="9" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="439"/>
+      <c r="B51" s="386"/>
       <c r="C51" s="185" t="s">
         <v>152</v>
       </c>
@@ -12485,7 +12510,7 @@
       <c r="L51" s="237"/>
     </row>
     <row r="52" spans="2:12" s="9" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="440"/>
+      <c r="B52" s="387"/>
       <c r="C52" s="146" t="s">
         <v>153</v>
       </c>
@@ -12512,7 +12537,7 @@
       <c r="L52" s="238"/>
     </row>
     <row r="53" spans="2:12" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="453" t="s">
+      <c r="B53" s="473" t="s">
         <v>279</v>
       </c>
       <c r="C53" s="144" t="s">
@@ -12528,7 +12553,7 @@
       <c r="G53" s="197">
         <v>500</v>
       </c>
-      <c r="H53" s="466" t="s">
+      <c r="H53" s="461" t="s">
         <v>104</v>
       </c>
       <c r="I53" s="197"/>
@@ -12539,178 +12564,178 @@
       <c r="L53" s="234"/>
     </row>
     <row r="54" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="454"/>
-      <c r="C54" s="392" t="s">
+      <c r="B54" s="474"/>
+      <c r="C54" s="512" t="s">
         <v>471</v>
       </c>
       <c r="D54" s="204" t="s">
         <v>475</v>
       </c>
-      <c r="E54" s="394"/>
-      <c r="F54" s="394">
+      <c r="E54" s="426"/>
+      <c r="F54" s="426">
         <v>2</v>
       </c>
-      <c r="G54" s="396" t="s">
+      <c r="G54" s="428" t="s">
         <v>472</v>
       </c>
-      <c r="H54" s="396"/>
-      <c r="I54" s="397" t="s">
+      <c r="H54" s="428"/>
+      <c r="I54" s="514" t="s">
         <v>249</v>
       </c>
-      <c r="J54" s="394" t="s">
+      <c r="J54" s="426" t="s">
         <v>249</v>
       </c>
-      <c r="K54" s="394" t="s">
+      <c r="K54" s="426" t="s">
         <v>533</v>
       </c>
-      <c r="L54" s="472"/>
+      <c r="L54" s="486"/>
     </row>
     <row r="55" spans="2:12" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="B55" s="454"/>
-      <c r="C55" s="393"/>
+      <c r="B55" s="474"/>
+      <c r="C55" s="513"/>
       <c r="D55" s="90" t="s">
         <v>478</v>
       </c>
-      <c r="E55" s="395"/>
-      <c r="F55" s="395"/>
-      <c r="G55" s="396"/>
-      <c r="H55" s="396"/>
-      <c r="I55" s="398"/>
-      <c r="J55" s="395"/>
-      <c r="K55" s="395"/>
-      <c r="L55" s="415"/>
+      <c r="E55" s="403"/>
+      <c r="F55" s="403"/>
+      <c r="G55" s="428"/>
+      <c r="H55" s="428"/>
+      <c r="I55" s="515"/>
+      <c r="J55" s="403"/>
+      <c r="K55" s="403"/>
+      <c r="L55" s="487"/>
     </row>
     <row r="56" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="454"/>
-      <c r="C56" s="393"/>
+      <c r="B56" s="474"/>
+      <c r="C56" s="513"/>
       <c r="D56" s="90" t="s">
         <v>476</v>
       </c>
-      <c r="E56" s="395"/>
-      <c r="F56" s="395"/>
-      <c r="G56" s="396"/>
-      <c r="H56" s="396"/>
-      <c r="I56" s="398"/>
-      <c r="J56" s="395"/>
-      <c r="K56" s="395"/>
-      <c r="L56" s="415"/>
+      <c r="E56" s="403"/>
+      <c r="F56" s="403"/>
+      <c r="G56" s="428"/>
+      <c r="H56" s="428"/>
+      <c r="I56" s="515"/>
+      <c r="J56" s="403"/>
+      <c r="K56" s="403"/>
+      <c r="L56" s="487"/>
     </row>
     <row r="57" spans="2:12" ht="27" x14ac:dyDescent="0.3">
-      <c r="B57" s="454"/>
-      <c r="C57" s="393"/>
+      <c r="B57" s="474"/>
+      <c r="C57" s="513"/>
       <c r="D57" s="90" t="s">
         <v>477</v>
       </c>
-      <c r="E57" s="395"/>
-      <c r="F57" s="395"/>
-      <c r="G57" s="396"/>
-      <c r="H57" s="396"/>
-      <c r="I57" s="398"/>
-      <c r="J57" s="395"/>
-      <c r="K57" s="395"/>
-      <c r="L57" s="415"/>
+      <c r="E57" s="403"/>
+      <c r="F57" s="403"/>
+      <c r="G57" s="428"/>
+      <c r="H57" s="428"/>
+      <c r="I57" s="515"/>
+      <c r="J57" s="403"/>
+      <c r="K57" s="403"/>
+      <c r="L57" s="487"/>
     </row>
     <row r="58" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="454"/>
-      <c r="C58" s="393"/>
+      <c r="B58" s="474"/>
+      <c r="C58" s="513"/>
       <c r="D58" s="89" t="s">
         <v>474</v>
       </c>
-      <c r="E58" s="395"/>
-      <c r="F58" s="395"/>
-      <c r="G58" s="394"/>
-      <c r="H58" s="396"/>
-      <c r="I58" s="398"/>
-      <c r="J58" s="395"/>
-      <c r="K58" s="395"/>
-      <c r="L58" s="415"/>
+      <c r="E58" s="403"/>
+      <c r="F58" s="403"/>
+      <c r="G58" s="426"/>
+      <c r="H58" s="428"/>
+      <c r="I58" s="515"/>
+      <c r="J58" s="403"/>
+      <c r="K58" s="403"/>
+      <c r="L58" s="487"/>
     </row>
     <row r="59" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="454"/>
-      <c r="C59" s="477" t="s">
+      <c r="B59" s="474"/>
+      <c r="C59" s="462" t="s">
         <v>247</v>
       </c>
       <c r="D59" s="147" t="s">
         <v>280</v>
       </c>
-      <c r="E59" s="399"/>
-      <c r="F59" s="399">
+      <c r="E59" s="427"/>
+      <c r="F59" s="427">
         <v>4</v>
       </c>
-      <c r="G59" s="399" t="s">
+      <c r="G59" s="427" t="s">
         <v>302</v>
       </c>
-      <c r="H59" s="396"/>
-      <c r="I59" s="401" t="s">
+      <c r="H59" s="428"/>
+      <c r="I59" s="516" t="s">
         <v>249</v>
       </c>
-      <c r="J59" s="399" t="s">
+      <c r="J59" s="427" t="s">
         <v>249</v>
       </c>
-      <c r="K59" s="399" t="s">
+      <c r="K59" s="427" t="s">
         <v>533</v>
       </c>
-      <c r="L59" s="473"/>
+      <c r="L59" s="488"/>
     </row>
     <row r="60" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="454"/>
-      <c r="C60" s="478"/>
+      <c r="B60" s="474"/>
+      <c r="C60" s="463"/>
       <c r="D60" s="89" t="s">
         <v>281</v>
       </c>
-      <c r="E60" s="396"/>
-      <c r="F60" s="396"/>
-      <c r="G60" s="396"/>
-      <c r="H60" s="396"/>
-      <c r="I60" s="402"/>
-      <c r="J60" s="396"/>
-      <c r="K60" s="396"/>
-      <c r="L60" s="474"/>
+      <c r="E60" s="428"/>
+      <c r="F60" s="428"/>
+      <c r="G60" s="428"/>
+      <c r="H60" s="428"/>
+      <c r="I60" s="517"/>
+      <c r="J60" s="428"/>
+      <c r="K60" s="428"/>
+      <c r="L60" s="489"/>
     </row>
     <row r="61" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="454"/>
-      <c r="C61" s="478"/>
+      <c r="B61" s="474"/>
+      <c r="C61" s="463"/>
       <c r="D61" s="89" t="s">
         <v>282</v>
       </c>
-      <c r="E61" s="396"/>
-      <c r="F61" s="396"/>
-      <c r="G61" s="396"/>
-      <c r="H61" s="396"/>
-      <c r="I61" s="402"/>
-      <c r="J61" s="396"/>
-      <c r="K61" s="396"/>
-      <c r="L61" s="474"/>
+      <c r="E61" s="428"/>
+      <c r="F61" s="428"/>
+      <c r="G61" s="428"/>
+      <c r="H61" s="428"/>
+      <c r="I61" s="517"/>
+      <c r="J61" s="428"/>
+      <c r="K61" s="428"/>
+      <c r="L61" s="489"/>
     </row>
     <row r="62" spans="2:12" ht="46.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="454"/>
-      <c r="C62" s="478"/>
+      <c r="B62" s="474"/>
+      <c r="C62" s="463"/>
       <c r="D62" s="90" t="s">
         <v>283</v>
       </c>
-      <c r="E62" s="396"/>
-      <c r="F62" s="396"/>
-      <c r="G62" s="396"/>
-      <c r="H62" s="396"/>
-      <c r="I62" s="402"/>
-      <c r="J62" s="396"/>
-      <c r="K62" s="396"/>
-      <c r="L62" s="474"/>
+      <c r="E62" s="428"/>
+      <c r="F62" s="428"/>
+      <c r="G62" s="428"/>
+      <c r="H62" s="428"/>
+      <c r="I62" s="517"/>
+      <c r="J62" s="428"/>
+      <c r="K62" s="428"/>
+      <c r="L62" s="489"/>
     </row>
     <row r="63" spans="2:12" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="455"/>
-      <c r="C63" s="479"/>
+      <c r="B63" s="475"/>
+      <c r="C63" s="464"/>
       <c r="D63" s="87" t="s">
         <v>473</v>
       </c>
-      <c r="E63" s="400"/>
-      <c r="F63" s="400"/>
-      <c r="G63" s="400"/>
-      <c r="H63" s="400"/>
-      <c r="I63" s="403"/>
-      <c r="J63" s="400"/>
-      <c r="K63" s="400"/>
-      <c r="L63" s="475"/>
+      <c r="E63" s="429"/>
+      <c r="F63" s="429"/>
+      <c r="G63" s="429"/>
+      <c r="H63" s="429"/>
+      <c r="I63" s="518"/>
+      <c r="J63" s="429"/>
+      <c r="K63" s="429"/>
+      <c r="L63" s="490"/>
     </row>
     <row r="64" spans="2:12" s="9" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C64" s="62"/>
@@ -12726,17 +12751,17 @@
       <c r="D65" s="132" t="s">
         <v>91</v>
       </c>
-      <c r="E65" s="404" t="s">
+      <c r="E65" s="449" t="s">
         <v>480</v>
       </c>
-      <c r="F65" s="482"/>
+      <c r="F65" s="450"/>
       <c r="G65" s="160" t="s">
         <v>482</v>
       </c>
-      <c r="H65" s="404" t="s">
+      <c r="H65" s="449" t="s">
         <v>558</v>
       </c>
-      <c r="I65" s="404"/>
+      <c r="I65" s="449"/>
       <c r="J65" s="200" t="s">
         <v>574</v>
       </c>
@@ -12748,7 +12773,7 @@
       </c>
     </row>
     <row r="66" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="468" t="s">
+      <c r="B66" s="434" t="s">
         <v>288</v>
       </c>
       <c r="C66" s="131" t="s">
@@ -12757,17 +12782,17 @@
       <c r="D66" s="266" t="s">
         <v>479</v>
       </c>
-      <c r="E66" s="429" t="s">
+      <c r="E66" s="421" t="s">
         <v>481</v>
       </c>
-      <c r="F66" s="429"/>
+      <c r="F66" s="421"/>
       <c r="G66" s="67" t="s">
         <v>484</v>
       </c>
-      <c r="H66" s="405" t="s">
+      <c r="H66" s="519" t="s">
         <v>483</v>
       </c>
-      <c r="I66" s="405"/>
+      <c r="I66" s="519"/>
       <c r="J66" s="194"/>
       <c r="K66" s="194" t="s">
         <v>533</v>
@@ -12775,24 +12800,24 @@
       <c r="L66" s="231"/>
     </row>
     <row r="67" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="469"/>
+      <c r="B67" s="435"/>
       <c r="C67" s="81" t="s">
         <v>158</v>
       </c>
       <c r="D67" s="206" t="s">
         <v>286</v>
       </c>
-      <c r="E67" s="406">
+      <c r="E67" s="417">
         <v>8</v>
       </c>
-      <c r="F67" s="406"/>
-      <c r="G67" s="483" t="s">
+      <c r="F67" s="417"/>
+      <c r="G67" s="431" t="s">
         <v>485</v>
       </c>
-      <c r="H67" s="386" t="s">
+      <c r="H67" s="375" t="s">
         <v>159</v>
       </c>
-      <c r="I67" s="387"/>
+      <c r="I67" s="376"/>
       <c r="J67" s="195" t="s">
         <v>160</v>
       </c>
@@ -12802,22 +12827,22 @@
       <c r="L67" s="227"/>
     </row>
     <row r="68" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="469"/>
+      <c r="B68" s="435"/>
       <c r="C68" s="81" t="s">
         <v>161</v>
       </c>
       <c r="D68" s="206" t="s">
         <v>285</v>
       </c>
-      <c r="E68" s="406">
+      <c r="E68" s="417">
         <v>4</v>
       </c>
-      <c r="F68" s="406"/>
-      <c r="G68" s="389"/>
-      <c r="H68" s="386" t="s">
+      <c r="F68" s="417"/>
+      <c r="G68" s="415"/>
+      <c r="H68" s="375" t="s">
         <v>162</v>
       </c>
-      <c r="I68" s="387"/>
+      <c r="I68" s="376"/>
       <c r="J68" s="195" t="s">
         <v>163</v>
       </c>
@@ -12827,22 +12852,22 @@
       <c r="L68" s="227"/>
     </row>
     <row r="69" spans="2:12" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="470"/>
+      <c r="B69" s="436"/>
       <c r="C69" s="129" t="s">
         <v>164</v>
       </c>
       <c r="D69" s="267" t="s">
         <v>286</v>
       </c>
-      <c r="E69" s="388">
+      <c r="E69" s="414">
         <v>32</v>
       </c>
-      <c r="F69" s="388"/>
-      <c r="G69" s="433"/>
-      <c r="H69" s="493" t="s">
+      <c r="F69" s="414"/>
+      <c r="G69" s="432"/>
+      <c r="H69" s="451" t="s">
         <v>165</v>
       </c>
-      <c r="I69" s="494"/>
+      <c r="I69" s="452"/>
       <c r="J69" s="221" t="s">
         <v>166</v>
       </c>
@@ -12852,7 +12877,7 @@
       <c r="L69" s="240"/>
     </row>
     <row r="70" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="459" t="s">
+      <c r="B70" s="437" t="s">
         <v>287</v>
       </c>
       <c r="C70" s="127" t="s">
@@ -12861,17 +12886,17 @@
       <c r="D70" s="268" t="s">
         <v>493</v>
       </c>
-      <c r="E70" s="480" t="s">
+      <c r="E70" s="433" t="s">
         <v>289</v>
       </c>
-      <c r="F70" s="480"/>
+      <c r="F70" s="433"/>
       <c r="G70" s="86" t="s">
         <v>488</v>
       </c>
-      <c r="H70" s="495" t="s">
+      <c r="H70" s="453" t="s">
         <v>168</v>
       </c>
-      <c r="I70" s="496"/>
+      <c r="I70" s="454"/>
       <c r="J70" s="197" t="s">
         <v>169</v>
       </c>
@@ -12881,24 +12906,24 @@
       <c r="L70" s="234"/>
     </row>
     <row r="71" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="460"/>
+      <c r="B71" s="438"/>
       <c r="C71" s="149" t="s">
         <v>170</v>
       </c>
       <c r="D71" s="89" t="s">
         <v>492</v>
       </c>
-      <c r="E71" s="395">
+      <c r="E71" s="403">
         <v>8</v>
       </c>
-      <c r="F71" s="395"/>
+      <c r="F71" s="403"/>
       <c r="G71" s="65" t="s">
         <v>486</v>
       </c>
-      <c r="H71" s="497" t="s">
+      <c r="H71" s="407" t="s">
         <v>171</v>
       </c>
-      <c r="I71" s="498"/>
+      <c r="I71" s="408"/>
       <c r="J71" s="212"/>
       <c r="K71" s="212" t="s">
         <v>533</v>
@@ -12906,24 +12931,24 @@
       <c r="L71" s="241"/>
     </row>
     <row r="72" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="460"/>
+      <c r="B72" s="438"/>
       <c r="C72" s="149" t="s">
         <v>172</v>
       </c>
       <c r="D72" s="89" t="s">
         <v>492</v>
       </c>
-      <c r="E72" s="395">
+      <c r="E72" s="403">
         <v>8</v>
       </c>
-      <c r="F72" s="395"/>
+      <c r="F72" s="403"/>
       <c r="G72" s="65" t="s">
         <v>487</v>
       </c>
-      <c r="H72" s="488" t="s">
+      <c r="H72" s="404" t="s">
         <v>290</v>
       </c>
-      <c r="I72" s="489"/>
+      <c r="I72" s="405"/>
       <c r="J72" s="192" t="s">
         <v>173</v>
       </c>
@@ -12933,24 +12958,24 @@
       <c r="L72" s="235"/>
     </row>
     <row r="73" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="460"/>
+      <c r="B73" s="438"/>
       <c r="C73" s="128" t="s">
         <v>174</v>
       </c>
       <c r="D73" s="89" t="s">
         <v>479</v>
       </c>
-      <c r="E73" s="395">
+      <c r="E73" s="403">
         <v>8</v>
       </c>
-      <c r="F73" s="395"/>
+      <c r="F73" s="403"/>
       <c r="G73" s="65" t="s">
         <v>486</v>
       </c>
-      <c r="H73" s="497" t="s">
+      <c r="H73" s="407" t="s">
         <v>155</v>
       </c>
-      <c r="I73" s="498"/>
+      <c r="I73" s="408"/>
       <c r="J73" s="192" t="s">
         <v>156</v>
       </c>
@@ -12960,24 +12985,24 @@
       <c r="L73" s="235"/>
     </row>
     <row r="74" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="460"/>
+      <c r="B74" s="438"/>
       <c r="C74" s="128" t="s">
         <v>175</v>
       </c>
       <c r="D74" s="89" t="s">
         <v>479</v>
       </c>
-      <c r="E74" s="395">
+      <c r="E74" s="403">
         <v>32</v>
       </c>
-      <c r="F74" s="395"/>
+      <c r="F74" s="403"/>
       <c r="G74" s="65" t="s">
         <v>486</v>
       </c>
-      <c r="H74" s="497" t="s">
+      <c r="H74" s="407" t="s">
         <v>176</v>
       </c>
-      <c r="I74" s="498"/>
+      <c r="I74" s="408"/>
       <c r="J74" s="192" t="s">
         <v>166</v>
       </c>
@@ -12987,24 +13012,24 @@
       <c r="L74" s="235"/>
     </row>
     <row r="75" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="460"/>
+      <c r="B75" s="438"/>
       <c r="C75" s="128" t="s">
         <v>177</v>
       </c>
       <c r="D75" s="89" t="s">
         <v>284</v>
       </c>
-      <c r="E75" s="395">
+      <c r="E75" s="403">
         <v>32</v>
       </c>
-      <c r="F75" s="395"/>
+      <c r="F75" s="403"/>
       <c r="G75" s="65" t="s">
         <v>489</v>
       </c>
-      <c r="H75" s="497" t="s">
+      <c r="H75" s="407" t="s">
         <v>176</v>
       </c>
-      <c r="I75" s="498"/>
+      <c r="I75" s="408"/>
       <c r="J75" s="192" t="s">
         <v>166</v>
       </c>
@@ -13014,24 +13039,24 @@
       <c r="L75" s="235"/>
     </row>
     <row r="76" spans="2:12" ht="27" x14ac:dyDescent="0.3">
-      <c r="B76" s="460"/>
+      <c r="B76" s="438"/>
       <c r="C76" s="128" t="s">
         <v>178</v>
       </c>
       <c r="D76" s="90" t="s">
         <v>491</v>
       </c>
-      <c r="E76" s="395">
+      <c r="E76" s="403">
         <v>4</v>
       </c>
-      <c r="F76" s="395"/>
+      <c r="F76" s="403"/>
       <c r="G76" s="65" t="s">
         <v>487</v>
       </c>
-      <c r="H76" s="488" t="s">
+      <c r="H76" s="404" t="s">
         <v>179</v>
       </c>
-      <c r="I76" s="489"/>
+      <c r="I76" s="405"/>
       <c r="J76" s="192" t="s">
         <v>180</v>
       </c>
@@ -13041,24 +13066,24 @@
       <c r="L76" s="235"/>
     </row>
     <row r="77" spans="2:12" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="461"/>
+      <c r="B77" s="439"/>
       <c r="C77" s="130" t="s">
         <v>181</v>
       </c>
       <c r="D77" s="87" t="s">
         <v>573</v>
       </c>
-      <c r="E77" s="408">
+      <c r="E77" s="420">
         <v>8</v>
       </c>
-      <c r="F77" s="408"/>
+      <c r="F77" s="420"/>
       <c r="G77" s="85" t="s">
         <v>490</v>
       </c>
-      <c r="H77" s="503" t="s">
+      <c r="H77" s="455" t="s">
         <v>182</v>
       </c>
-      <c r="I77" s="504"/>
+      <c r="I77" s="456"/>
       <c r="J77" s="193" t="s">
         <v>156</v>
       </c>
@@ -13068,7 +13093,7 @@
       <c r="L77" s="236"/>
     </row>
     <row r="78" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="484" t="s">
+      <c r="B78" s="440" t="s">
         <v>291</v>
       </c>
       <c r="C78" s="256" t="s">
@@ -13077,17 +13102,17 @@
       <c r="D78" s="73" t="s">
         <v>492</v>
       </c>
-      <c r="E78" s="492">
+      <c r="E78" s="448">
         <v>8</v>
       </c>
-      <c r="F78" s="492"/>
+      <c r="F78" s="448"/>
       <c r="G78" s="224" t="s">
         <v>494</v>
       </c>
-      <c r="H78" s="490" t="s">
+      <c r="H78" s="446" t="s">
         <v>171</v>
       </c>
-      <c r="I78" s="491"/>
+      <c r="I78" s="447"/>
       <c r="J78" s="69" t="s">
         <v>184</v>
       </c>
@@ -13097,24 +13122,24 @@
       <c r="L78" s="226"/>
     </row>
     <row r="79" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="469"/>
+      <c r="B79" s="435"/>
       <c r="C79" s="81" t="s">
         <v>185</v>
       </c>
       <c r="D79" s="206" t="s">
         <v>492</v>
       </c>
-      <c r="E79" s="406">
+      <c r="E79" s="417">
         <v>8</v>
       </c>
-      <c r="F79" s="406"/>
+      <c r="F79" s="417"/>
       <c r="G79" s="188" t="s">
         <v>494</v>
       </c>
-      <c r="H79" s="386" t="s">
+      <c r="H79" s="375" t="s">
         <v>155</v>
       </c>
-      <c r="I79" s="387"/>
+      <c r="I79" s="376"/>
       <c r="J79" s="195" t="s">
         <v>156</v>
       </c>
@@ -13124,24 +13149,24 @@
       <c r="L79" s="227"/>
     </row>
     <row r="80" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="469"/>
+      <c r="B80" s="435"/>
       <c r="C80" s="81" t="s">
         <v>186</v>
       </c>
       <c r="D80" s="206" t="s">
         <v>495</v>
       </c>
-      <c r="E80" s="406">
+      <c r="E80" s="417">
         <v>8</v>
       </c>
-      <c r="F80" s="406"/>
+      <c r="F80" s="417"/>
       <c r="G80" s="188" t="s">
         <v>494</v>
       </c>
-      <c r="H80" s="386" t="s">
+      <c r="H80" s="375" t="s">
         <v>155</v>
       </c>
-      <c r="I80" s="387"/>
+      <c r="I80" s="376"/>
       <c r="J80" s="195" t="s">
         <v>156</v>
       </c>
@@ -13151,24 +13176,24 @@
       <c r="L80" s="227"/>
     </row>
     <row r="81" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="469"/>
+      <c r="B81" s="435"/>
       <c r="C81" s="81" t="s">
         <v>187</v>
       </c>
       <c r="D81" s="206" t="s">
         <v>492</v>
       </c>
-      <c r="E81" s="406">
+      <c r="E81" s="417">
         <v>32</v>
       </c>
-      <c r="F81" s="406"/>
+      <c r="F81" s="417"/>
       <c r="G81" s="188" t="s">
         <v>494</v>
       </c>
-      <c r="H81" s="386" t="s">
+      <c r="H81" s="375" t="s">
         <v>188</v>
       </c>
-      <c r="I81" s="387"/>
+      <c r="I81" s="376"/>
       <c r="J81" s="195" t="s">
         <v>189</v>
       </c>
@@ -13178,24 +13203,24 @@
       <c r="L81" s="227"/>
     </row>
     <row r="82" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="469"/>
+      <c r="B82" s="435"/>
       <c r="C82" s="81" t="s">
         <v>190</v>
       </c>
       <c r="D82" s="206" t="s">
         <v>495</v>
       </c>
-      <c r="E82" s="406">
+      <c r="E82" s="417">
         <v>32</v>
       </c>
-      <c r="F82" s="406"/>
+      <c r="F82" s="417"/>
       <c r="G82" s="188" t="s">
         <v>496</v>
       </c>
-      <c r="H82" s="386" t="s">
+      <c r="H82" s="375" t="s">
         <v>191</v>
       </c>
-      <c r="I82" s="387"/>
+      <c r="I82" s="376"/>
       <c r="J82" s="195" t="s">
         <v>192</v>
       </c>
@@ -13205,24 +13230,24 @@
       <c r="L82" s="227"/>
     </row>
     <row r="83" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B83" s="485"/>
+      <c r="B83" s="441"/>
       <c r="C83" s="82" t="s">
         <v>193</v>
       </c>
       <c r="D83" s="71" t="s">
         <v>497</v>
       </c>
-      <c r="E83" s="407">
+      <c r="E83" s="418">
         <v>16</v>
       </c>
-      <c r="F83" s="407"/>
+      <c r="F83" s="418"/>
       <c r="G83" s="225" t="s">
         <v>496</v>
       </c>
-      <c r="H83" s="493" t="s">
+      <c r="H83" s="451" t="s">
         <v>498</v>
       </c>
-      <c r="I83" s="494"/>
+      <c r="I83" s="452"/>
       <c r="J83" s="196" t="s">
         <v>194</v>
       </c>
@@ -13232,7 +13257,7 @@
       <c r="L83" s="233"/>
     </row>
     <row r="84" spans="2:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B84" s="444" t="s">
+      <c r="B84" s="442" t="s">
         <v>292</v>
       </c>
       <c r="C84" s="264" t="s">
@@ -13241,17 +13266,17 @@
       <c r="D84" s="269" t="s">
         <v>293</v>
       </c>
-      <c r="E84" s="394">
+      <c r="E84" s="426">
         <v>4</v>
       </c>
-      <c r="F84" s="394"/>
+      <c r="F84" s="426"/>
       <c r="G84" s="211" t="s">
         <v>534</v>
       </c>
-      <c r="H84" s="499" t="s">
+      <c r="H84" s="520" t="s">
         <v>195</v>
       </c>
-      <c r="I84" s="500"/>
+      <c r="I84" s="521"/>
       <c r="J84" s="211" t="s">
         <v>534</v>
       </c>
@@ -13261,24 +13286,24 @@
       <c r="L84" s="229"/>
     </row>
     <row r="85" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B85" s="452"/>
+      <c r="B85" s="443"/>
       <c r="C85" s="130" t="s">
         <v>197</v>
       </c>
       <c r="D85" s="87" t="s">
         <v>295</v>
       </c>
-      <c r="E85" s="408">
+      <c r="E85" s="420">
         <v>8</v>
       </c>
-      <c r="F85" s="408"/>
+      <c r="F85" s="420"/>
       <c r="G85" s="193" t="s">
         <v>534</v>
       </c>
-      <c r="H85" s="501" t="s">
+      <c r="H85" s="522" t="s">
         <v>198</v>
       </c>
-      <c r="I85" s="502"/>
+      <c r="I85" s="523"/>
       <c r="J85" s="193" t="s">
         <v>534</v>
       </c>
@@ -13297,17 +13322,17 @@
       <c r="D86" s="270" t="s">
         <v>561</v>
       </c>
-      <c r="E86" s="537">
+      <c r="E86" s="398">
         <v>4</v>
       </c>
-      <c r="F86" s="537"/>
+      <c r="F86" s="398"/>
       <c r="G86" s="259" t="s">
         <v>534</v>
       </c>
-      <c r="H86" s="538" t="s">
+      <c r="H86" s="399" t="s">
         <v>559</v>
       </c>
-      <c r="I86" s="539"/>
+      <c r="I86" s="400"/>
       <c r="J86" s="259" t="s">
         <v>534</v>
       </c>
@@ -13326,17 +13351,17 @@
       <c r="D87" s="271" t="s">
         <v>561</v>
       </c>
-      <c r="E87" s="507">
+      <c r="E87" s="411">
         <v>4</v>
       </c>
-      <c r="F87" s="507"/>
+      <c r="F87" s="411"/>
       <c r="G87" s="262" t="s">
         <v>534</v>
       </c>
-      <c r="H87" s="508" t="s">
+      <c r="H87" s="412" t="s">
         <v>560</v>
       </c>
-      <c r="I87" s="509"/>
+      <c r="I87" s="413"/>
       <c r="J87" s="262" t="s">
         <v>534</v>
       </c>
@@ -13353,17 +13378,17 @@
         <v>294</v>
       </c>
       <c r="D88" s="268"/>
-      <c r="E88" s="480">
+      <c r="E88" s="433">
         <v>2</v>
       </c>
-      <c r="F88" s="480"/>
+      <c r="F88" s="433"/>
       <c r="G88" s="86" t="s">
         <v>534</v>
       </c>
-      <c r="H88" s="495" t="s">
+      <c r="H88" s="453" t="s">
         <v>200</v>
       </c>
-      <c r="I88" s="496"/>
+      <c r="I88" s="454"/>
       <c r="J88" s="197" t="s">
         <v>534</v>
       </c>
@@ -13375,24 +13400,24 @@
       </c>
     </row>
     <row r="89" spans="2:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B89" s="540" t="s">
+      <c r="B89" s="401" t="s">
         <v>536</v>
       </c>
       <c r="C89" s="128" t="s">
         <v>201</v>
       </c>
       <c r="D89" s="89"/>
-      <c r="E89" s="395">
+      <c r="E89" s="403">
         <v>1</v>
       </c>
-      <c r="F89" s="395"/>
+      <c r="F89" s="403"/>
       <c r="G89" s="65" t="s">
         <v>534</v>
       </c>
-      <c r="H89" s="488" t="s">
+      <c r="H89" s="404" t="s">
         <v>199</v>
       </c>
-      <c r="I89" s="489"/>
+      <c r="I89" s="405"/>
       <c r="J89" s="192" t="s">
         <v>534</v>
       </c>
@@ -13404,22 +13429,22 @@
       </c>
     </row>
     <row r="90" spans="2:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B90" s="541"/>
+      <c r="B90" s="402"/>
       <c r="C90" s="128" t="s">
         <v>202</v>
       </c>
       <c r="D90" s="89"/>
-      <c r="E90" s="395">
+      <c r="E90" s="403">
         <v>1</v>
       </c>
-      <c r="F90" s="395"/>
+      <c r="F90" s="403"/>
       <c r="G90" s="65" t="s">
         <v>534</v>
       </c>
-      <c r="H90" s="488" t="s">
+      <c r="H90" s="404" t="s">
         <v>203</v>
       </c>
-      <c r="I90" s="489"/>
+      <c r="I90" s="405"/>
       <c r="J90" s="192" t="s">
         <v>534</v>
       </c>
@@ -13438,17 +13463,17 @@
         <v>568</v>
       </c>
       <c r="D91" s="272"/>
-      <c r="E91" s="395">
+      <c r="E91" s="403">
         <v>1</v>
       </c>
-      <c r="F91" s="395"/>
+      <c r="F91" s="403"/>
       <c r="G91" s="83" t="s">
         <v>534</v>
       </c>
-      <c r="H91" s="488" t="s">
+      <c r="H91" s="404" t="s">
         <v>539</v>
       </c>
-      <c r="I91" s="489"/>
+      <c r="I91" s="405"/>
       <c r="J91" s="83" t="s">
         <v>534</v>
       </c>
@@ -13467,17 +13492,17 @@
         <v>542</v>
       </c>
       <c r="D92" s="272"/>
-      <c r="E92" s="395">
+      <c r="E92" s="403">
         <v>1</v>
       </c>
-      <c r="F92" s="395"/>
+      <c r="F92" s="403"/>
       <c r="G92" s="83" t="s">
         <v>534</v>
       </c>
-      <c r="H92" s="488" t="s">
+      <c r="H92" s="404" t="s">
         <v>203</v>
       </c>
-      <c r="I92" s="489"/>
+      <c r="I92" s="405"/>
       <c r="J92" s="83" t="s">
         <v>534</v>
       </c>
@@ -13487,24 +13512,24 @@
       <c r="L92" s="230"/>
     </row>
     <row r="93" spans="2:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B93" s="540" t="s">
+      <c r="B93" s="401" t="s">
         <v>541</v>
       </c>
       <c r="C93" s="245" t="s">
         <v>543</v>
       </c>
       <c r="D93" s="272"/>
-      <c r="E93" s="395">
+      <c r="E93" s="403">
         <v>1</v>
       </c>
-      <c r="F93" s="395"/>
+      <c r="F93" s="403"/>
       <c r="G93" s="83" t="s">
         <v>534</v>
       </c>
-      <c r="H93" s="488" t="s">
+      <c r="H93" s="404" t="s">
         <v>545</v>
       </c>
-      <c r="I93" s="489"/>
+      <c r="I93" s="405"/>
       <c r="J93" s="83" t="s">
         <v>534</v>
       </c>
@@ -13516,22 +13541,22 @@
       </c>
     </row>
     <row r="94" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B94" s="542"/>
+      <c r="B94" s="406"/>
       <c r="C94" s="130" t="s">
         <v>544</v>
       </c>
       <c r="D94" s="87"/>
-      <c r="E94" s="408">
+      <c r="E94" s="420">
         <v>1</v>
       </c>
-      <c r="F94" s="408"/>
+      <c r="F94" s="420"/>
       <c r="G94" s="85" t="s">
         <v>534</v>
       </c>
-      <c r="H94" s="488" t="s">
+      <c r="H94" s="404" t="s">
         <v>545</v>
       </c>
-      <c r="I94" s="489"/>
+      <c r="I94" s="405"/>
       <c r="J94" s="193" t="s">
         <v>534</v>
       </c>
@@ -13543,24 +13568,24 @@
       </c>
     </row>
     <row r="95" spans="2:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B95" s="439" t="s">
+      <c r="B95" s="386" t="s">
         <v>300</v>
       </c>
       <c r="C95" s="131" t="s">
         <v>566</v>
       </c>
       <c r="D95" s="266"/>
-      <c r="E95" s="429">
+      <c r="E95" s="421">
         <v>3</v>
       </c>
-      <c r="F95" s="429"/>
+      <c r="F95" s="421"/>
       <c r="G95" s="194" t="s">
         <v>534</v>
       </c>
-      <c r="H95" s="490" t="s">
+      <c r="H95" s="446" t="s">
         <v>534</v>
       </c>
-      <c r="I95" s="491"/>
+      <c r="I95" s="447"/>
       <c r="J95" s="194" t="s">
         <v>534</v>
       </c>
@@ -13572,22 +13597,22 @@
       </c>
     </row>
     <row r="96" spans="2:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B96" s="439"/>
+      <c r="B96" s="386"/>
       <c r="C96" s="131" t="s">
         <v>499</v>
       </c>
       <c r="D96" s="266"/>
-      <c r="E96" s="386">
+      <c r="E96" s="375">
         <v>1</v>
       </c>
-      <c r="F96" s="387"/>
+      <c r="F96" s="376"/>
       <c r="G96" s="194" t="s">
         <v>534</v>
       </c>
-      <c r="H96" s="386" t="s">
+      <c r="H96" s="375" t="s">
         <v>534</v>
       </c>
-      <c r="I96" s="387"/>
+      <c r="I96" s="376"/>
       <c r="J96" s="194" t="s">
         <v>534</v>
       </c>
@@ -13599,22 +13624,22 @@
       </c>
     </row>
     <row r="97" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B97" s="439"/>
+      <c r="B97" s="386"/>
       <c r="C97" s="81" t="s">
         <v>301</v>
       </c>
       <c r="D97" s="70"/>
-      <c r="E97" s="406">
+      <c r="E97" s="417">
         <v>4</v>
       </c>
-      <c r="F97" s="406"/>
+      <c r="F97" s="417"/>
       <c r="G97" s="195" t="s">
         <v>534</v>
       </c>
-      <c r="H97" s="386" t="s">
+      <c r="H97" s="375" t="s">
         <v>534</v>
       </c>
-      <c r="I97" s="387"/>
+      <c r="I97" s="376"/>
       <c r="J97" s="195" t="s">
         <v>534</v>
       </c>
@@ -13626,22 +13651,22 @@
       </c>
     </row>
     <row r="98" spans="2:14" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B98" s="440"/>
+      <c r="B98" s="387"/>
       <c r="C98" s="150" t="s">
         <v>567</v>
       </c>
       <c r="D98" s="71"/>
-      <c r="E98" s="407">
+      <c r="E98" s="418">
         <v>8</v>
       </c>
-      <c r="F98" s="407"/>
+      <c r="F98" s="418"/>
       <c r="G98" s="196" t="s">
         <v>534</v>
       </c>
-      <c r="H98" s="486" t="s">
+      <c r="H98" s="444" t="s">
         <v>155</v>
       </c>
-      <c r="I98" s="487"/>
+      <c r="I98" s="445"/>
       <c r="J98" s="221" t="s">
         <v>156</v>
       </c>
@@ -13664,53 +13689,53 @@
       <c r="J99"/>
     </row>
     <row r="100" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B100" s="519" t="s">
+      <c r="B100" s="392" t="s">
         <v>0</v>
       </c>
-      <c r="C100" s="409" t="s">
+      <c r="C100" s="394" t="s">
         <v>90</v>
       </c>
-      <c r="D100" s="521" t="s">
+      <c r="D100" s="396" t="s">
         <v>505</v>
       </c>
-      <c r="E100" s="523" t="s">
+      <c r="E100" s="369" t="s">
         <v>521</v>
       </c>
-      <c r="F100" s="524"/>
+      <c r="F100" s="370"/>
       <c r="G100" s="218" t="s">
         <v>504</v>
       </c>
-      <c r="H100" s="523" t="s">
+      <c r="H100" s="369" t="s">
         <v>508</v>
       </c>
-      <c r="I100" s="524"/>
-      <c r="J100" s="436" t="s">
+      <c r="I100" s="370"/>
+      <c r="J100" s="367" t="s">
         <v>509</v>
       </c>
-      <c r="K100" s="436" t="s">
+      <c r="K100" s="367" t="s">
         <v>526</v>
       </c>
-      <c r="L100" s="505" t="s">
+      <c r="L100" s="409" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="101" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B101" s="520"/>
-      <c r="C101" s="410"/>
-      <c r="D101" s="522"/>
-      <c r="E101" s="525"/>
-      <c r="F101" s="526"/>
+      <c r="B101" s="393"/>
+      <c r="C101" s="395"/>
+      <c r="D101" s="397"/>
+      <c r="E101" s="371"/>
+      <c r="F101" s="372"/>
       <c r="G101" s="208" t="s">
         <v>506</v>
       </c>
-      <c r="H101" s="525"/>
-      <c r="I101" s="526"/>
-      <c r="J101" s="437"/>
-      <c r="K101" s="437"/>
-      <c r="L101" s="506"/>
+      <c r="H101" s="371"/>
+      <c r="I101" s="372"/>
+      <c r="J101" s="368"/>
+      <c r="K101" s="368"/>
+      <c r="L101" s="410"/>
     </row>
     <row r="102" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B102" s="438" t="s">
+      <c r="B102" s="385" t="s">
         <v>551</v>
       </c>
       <c r="C102" s="145" t="s">
@@ -13719,17 +13744,17 @@
       <c r="D102" s="219" t="s">
         <v>500</v>
       </c>
-      <c r="E102" s="533" t="s">
+      <c r="E102" s="381" t="s">
         <v>525</v>
       </c>
-      <c r="F102" s="534"/>
+      <c r="F102" s="382"/>
       <c r="G102" s="194" t="s">
         <v>507</v>
       </c>
-      <c r="H102" s="527" t="s">
+      <c r="H102" s="373" t="s">
         <v>511</v>
       </c>
-      <c r="I102" s="528"/>
+      <c r="I102" s="374"/>
       <c r="J102" s="194" t="s">
         <v>510</v>
       </c>
@@ -13739,24 +13764,24 @@
       <c r="L102" s="205"/>
     </row>
     <row r="103" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B103" s="439"/>
+      <c r="B103" s="386"/>
       <c r="C103" s="135" t="s">
         <v>502</v>
       </c>
       <c r="D103" s="214" t="s">
         <v>500</v>
       </c>
-      <c r="E103" s="533" t="s">
+      <c r="E103" s="381" t="s">
         <v>525</v>
       </c>
-      <c r="F103" s="534"/>
+      <c r="F103" s="382"/>
       <c r="G103" s="195" t="s">
         <v>507</v>
       </c>
-      <c r="H103" s="386" t="s">
+      <c r="H103" s="375" t="s">
         <v>512</v>
       </c>
-      <c r="I103" s="387"/>
+      <c r="I103" s="376"/>
       <c r="J103" s="195" t="s">
         <v>249</v>
       </c>
@@ -13768,24 +13793,24 @@
       </c>
     </row>
     <row r="104" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B104" s="439"/>
+      <c r="B104" s="386"/>
       <c r="C104" s="135" t="s">
         <v>503</v>
       </c>
       <c r="D104" s="220" t="s">
         <v>500</v>
       </c>
-      <c r="E104" s="533" t="s">
+      <c r="E104" s="381" t="s">
         <v>525</v>
       </c>
-      <c r="F104" s="534"/>
+      <c r="F104" s="382"/>
       <c r="G104" s="195" t="s">
         <v>513</v>
       </c>
-      <c r="H104" s="386" t="s">
+      <c r="H104" s="375" t="s">
         <v>514</v>
       </c>
-      <c r="I104" s="387"/>
+      <c r="I104" s="376"/>
       <c r="J104" s="195" t="s">
         <v>510</v>
       </c>
@@ -13795,24 +13820,24 @@
       <c r="L104" s="202"/>
     </row>
     <row r="105" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B105" s="439"/>
+      <c r="B105" s="386"/>
       <c r="C105" s="145" t="s">
         <v>518</v>
       </c>
       <c r="D105" s="219" t="s">
         <v>524</v>
       </c>
-      <c r="E105" s="533">
+      <c r="E105" s="381">
         <v>1</v>
       </c>
-      <c r="F105" s="534"/>
+      <c r="F105" s="382"/>
       <c r="G105" s="194" t="s">
         <v>523</v>
       </c>
-      <c r="H105" s="386" t="s">
+      <c r="H105" s="375" t="s">
         <v>522</v>
       </c>
-      <c r="I105" s="387"/>
+      <c r="I105" s="376"/>
       <c r="J105" s="194" t="s">
         <v>529</v>
       </c>
@@ -13822,24 +13847,24 @@
       <c r="L105" s="205"/>
     </row>
     <row r="106" spans="2:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B106" s="439"/>
+      <c r="B106" s="386"/>
       <c r="C106" s="135" t="s">
         <v>519</v>
       </c>
       <c r="D106" s="214" t="s">
         <v>524</v>
       </c>
-      <c r="E106" s="533">
+      <c r="E106" s="381">
         <v>1</v>
       </c>
-      <c r="F106" s="534"/>
+      <c r="F106" s="382"/>
       <c r="G106" s="195" t="s">
         <v>523</v>
       </c>
-      <c r="H106" s="529" t="s">
+      <c r="H106" s="377" t="s">
         <v>553</v>
       </c>
-      <c r="I106" s="530"/>
+      <c r="I106" s="378"/>
       <c r="J106" s="195" t="s">
         <v>529</v>
       </c>
@@ -13849,24 +13874,24 @@
       <c r="L106" s="209"/>
     </row>
     <row r="107" spans="2:14" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B107" s="440"/>
+      <c r="B107" s="387"/>
       <c r="C107" s="138" t="s">
         <v>520</v>
       </c>
       <c r="D107" s="215" t="s">
         <v>524</v>
       </c>
-      <c r="E107" s="535">
+      <c r="E107" s="383">
         <v>2</v>
       </c>
-      <c r="F107" s="536"/>
+      <c r="F107" s="384"/>
       <c r="G107" s="196" t="s">
         <v>523</v>
       </c>
-      <c r="H107" s="531" t="s">
+      <c r="H107" s="379" t="s">
         <v>553</v>
       </c>
-      <c r="I107" s="532"/>
+      <c r="I107" s="380"/>
       <c r="J107" s="196" t="s">
         <v>529</v>
       </c>
@@ -13886,17 +13911,17 @@
       <c r="D109" s="251" t="s">
         <v>571</v>
       </c>
-      <c r="E109" s="515" t="s">
+      <c r="E109" s="388" t="s">
         <v>516</v>
       </c>
-      <c r="F109" s="516"/>
+      <c r="F109" s="389"/>
       <c r="G109" s="251" t="s">
         <v>239</v>
       </c>
-      <c r="H109" s="515" t="s">
+      <c r="H109" s="388" t="s">
         <v>238</v>
       </c>
-      <c r="I109" s="516"/>
+      <c r="I109" s="389"/>
       <c r="J109" s="251" t="s">
         <v>5</v>
       </c>
@@ -13923,17 +13948,17 @@
       <c r="D110" s="275" t="s">
         <v>575</v>
       </c>
-      <c r="E110" s="517">
+      <c r="E110" s="390">
         <v>8</v>
       </c>
-      <c r="F110" s="518"/>
+      <c r="F110" s="391"/>
       <c r="G110" s="253" t="s">
         <v>507</v>
       </c>
-      <c r="H110" s="517">
+      <c r="H110" s="390">
         <v>12</v>
       </c>
-      <c r="I110" s="518"/>
+      <c r="I110" s="391"/>
       <c r="J110" s="253">
         <v>8</v>
       </c>
@@ -13952,41 +13977,131 @@
     </row>
   </sheetData>
   <mergeCells count="185">
-    <mergeCell ref="J100:J101"/>
-    <mergeCell ref="H100:I101"/>
-    <mergeCell ref="H102:I102"/>
-    <mergeCell ref="H103:I103"/>
-    <mergeCell ref="H104:I104"/>
-    <mergeCell ref="H105:I105"/>
-    <mergeCell ref="H106:I106"/>
-    <mergeCell ref="H107:I107"/>
-    <mergeCell ref="E100:F101"/>
-    <mergeCell ref="E102:F102"/>
-    <mergeCell ref="E103:F103"/>
-    <mergeCell ref="E104:F104"/>
-    <mergeCell ref="E105:F105"/>
-    <mergeCell ref="E106:F106"/>
-    <mergeCell ref="E107:F107"/>
-    <mergeCell ref="H97:I97"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="B102:B107"/>
-    <mergeCell ref="E109:F109"/>
-    <mergeCell ref="E110:F110"/>
-    <mergeCell ref="H109:I109"/>
-    <mergeCell ref="H110:I110"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="C100:C101"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="H86:I86"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="E91:F91"/>
-    <mergeCell ref="H91:I91"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="E92:F92"/>
-    <mergeCell ref="E93:F93"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="I54:I58"/>
+    <mergeCell ref="F59:F63"/>
+    <mergeCell ref="I59:I63"/>
+    <mergeCell ref="E59:E63"/>
+    <mergeCell ref="G59:G63"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="L27:L29"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D30:D34"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="L10:L13"/>
+    <mergeCell ref="H14:H17"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="H30:H34"/>
+    <mergeCell ref="H35:H37"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B6:B24"/>
+    <mergeCell ref="L22:L24"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="B30:B37"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="B53:B63"/>
+    <mergeCell ref="L44:L46"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="G38:G40"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="L41:L42"/>
+    <mergeCell ref="B47:B52"/>
+    <mergeCell ref="L54:L58"/>
+    <mergeCell ref="L59:L63"/>
+    <mergeCell ref="L47:L50"/>
+    <mergeCell ref="H48:H50"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="C54:C58"/>
+    <mergeCell ref="E54:E58"/>
+    <mergeCell ref="F54:F58"/>
+    <mergeCell ref="G54:G58"/>
+    <mergeCell ref="D9:D17"/>
+    <mergeCell ref="G35:G37"/>
+    <mergeCell ref="H53:H63"/>
+    <mergeCell ref="C59:C63"/>
+    <mergeCell ref="H41:H43"/>
+    <mergeCell ref="H44:H46"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="H22:H24"/>
+    <mergeCell ref="G22:G24"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="B70:B77"/>
+    <mergeCell ref="B78:B83"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="H98:I98"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="H94:I94"/>
+    <mergeCell ref="H95:I95"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="E96:F96"/>
+    <mergeCell ref="H96:I96"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="G67:G69"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="E94:F94"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="E97:F97"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="E89:F89"/>
     <mergeCell ref="H74:I74"/>
     <mergeCell ref="H82:I82"/>
     <mergeCell ref="K100:K101"/>
@@ -14011,132 +14126,42 @@
     <mergeCell ref="K47:K50"/>
     <mergeCell ref="K54:K58"/>
     <mergeCell ref="K59:K63"/>
+    <mergeCell ref="H97:I97"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="B102:B107"/>
+    <mergeCell ref="E109:F109"/>
+    <mergeCell ref="E110:F110"/>
+    <mergeCell ref="H109:I109"/>
+    <mergeCell ref="H110:I110"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="E91:F91"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="E92:F92"/>
+    <mergeCell ref="E93:F93"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="H92:I92"/>
     <mergeCell ref="B95:B98"/>
-    <mergeCell ref="G67:G69"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="E94:F94"/>
-    <mergeCell ref="E95:F95"/>
-    <mergeCell ref="E97:F97"/>
-    <mergeCell ref="E98:F98"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="B70:B77"/>
-    <mergeCell ref="B78:B83"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="H98:I98"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="H94:I94"/>
-    <mergeCell ref="H95:I95"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="E96:F96"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="D9:D17"/>
-    <mergeCell ref="G35:G37"/>
-    <mergeCell ref="H53:H63"/>
-    <mergeCell ref="C59:C63"/>
-    <mergeCell ref="H41:H43"/>
-    <mergeCell ref="H44:H46"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="H22:H24"/>
-    <mergeCell ref="G22:G24"/>
-    <mergeCell ref="H38:H40"/>
-    <mergeCell ref="G27:G29"/>
-    <mergeCell ref="H27:H29"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="B30:B37"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="B53:B63"/>
-    <mergeCell ref="L44:L46"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="G38:G40"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="L41:L42"/>
-    <mergeCell ref="B47:B52"/>
-    <mergeCell ref="L54:L58"/>
-    <mergeCell ref="L59:L63"/>
-    <mergeCell ref="L47:L50"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="L27:L29"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D30:D34"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H13"/>
-    <mergeCell ref="L10:L13"/>
-    <mergeCell ref="H14:H17"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="H30:H34"/>
-    <mergeCell ref="H35:H37"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B6:B24"/>
-    <mergeCell ref="L22:L24"/>
-    <mergeCell ref="H96:I96"/>
-    <mergeCell ref="H48:H50"/>
-    <mergeCell ref="D48:D50"/>
-    <mergeCell ref="C54:C58"/>
-    <mergeCell ref="E54:E58"/>
-    <mergeCell ref="F54:F58"/>
-    <mergeCell ref="G54:G58"/>
-    <mergeCell ref="I54:I58"/>
-    <mergeCell ref="F59:F63"/>
-    <mergeCell ref="I59:I63"/>
-    <mergeCell ref="E59:E63"/>
-    <mergeCell ref="G59:G63"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="H85:I85"/>
-    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="J100:J101"/>
+    <mergeCell ref="H100:I101"/>
+    <mergeCell ref="H102:I102"/>
+    <mergeCell ref="H103:I103"/>
+    <mergeCell ref="H104:I104"/>
+    <mergeCell ref="H105:I105"/>
+    <mergeCell ref="H106:I106"/>
+    <mergeCell ref="H107:I107"/>
+    <mergeCell ref="E100:F101"/>
+    <mergeCell ref="E102:F102"/>
+    <mergeCell ref="E103:F103"/>
+    <mergeCell ref="E104:F104"/>
+    <mergeCell ref="E105:F105"/>
+    <mergeCell ref="E106:F106"/>
+    <mergeCell ref="E107:F107"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -14213,7 +14238,7 @@
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="553" t="s">
+      <c r="B4" s="527" t="s">
         <v>577</v>
       </c>
       <c r="C4" s="293" t="s">
@@ -14231,13 +14256,13 @@
       <c r="G4" s="294">
         <v>3</v>
       </c>
-      <c r="H4" s="543" t="s">
+      <c r="H4" s="530" t="s">
         <v>510</v>
       </c>
-      <c r="I4" s="543" t="s">
+      <c r="I4" s="530" t="s">
         <v>608</v>
       </c>
-      <c r="J4" s="543" t="s">
+      <c r="J4" s="530" t="s">
         <v>602</v>
       </c>
       <c r="K4" s="294" t="s">
@@ -14246,7 +14271,7 @@
       <c r="L4" s="295"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="554"/>
+      <c r="B5" s="528"/>
       <c r="C5" s="286" t="s">
         <v>579</v>
       </c>
@@ -14262,16 +14287,16 @@
       <c r="G5" s="277">
         <v>5</v>
       </c>
-      <c r="H5" s="544"/>
-      <c r="I5" s="544"/>
-      <c r="J5" s="544"/>
+      <c r="H5" s="531"/>
+      <c r="I5" s="531"/>
+      <c r="J5" s="531"/>
       <c r="K5" s="277" t="s">
         <v>510</v>
       </c>
       <c r="L5" s="281"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="554"/>
+      <c r="B6" s="528"/>
       <c r="C6" s="286" t="s">
         <v>580</v>
       </c>
@@ -14287,16 +14312,16 @@
       <c r="G6" s="277">
         <v>5</v>
       </c>
-      <c r="H6" s="544"/>
-      <c r="I6" s="544"/>
-      <c r="J6" s="544"/>
+      <c r="H6" s="531"/>
+      <c r="I6" s="531"/>
+      <c r="J6" s="531"/>
       <c r="K6" s="277" t="s">
         <v>510</v>
       </c>
       <c r="L6" s="281"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="554"/>
+      <c r="B7" s="528"/>
       <c r="C7" s="286" t="s">
         <v>581</v>
       </c>
@@ -14312,16 +14337,16 @@
       <c r="G7" s="277">
         <v>7</v>
       </c>
-      <c r="H7" s="544"/>
-      <c r="I7" s="544"/>
-      <c r="J7" s="544"/>
+      <c r="H7" s="531"/>
+      <c r="I7" s="531"/>
+      <c r="J7" s="531"/>
       <c r="K7" s="277" t="s">
         <v>249</v>
       </c>
       <c r="L7" s="281"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="554"/>
+      <c r="B8" s="528"/>
       <c r="C8" s="286" t="s">
         <v>582</v>
       </c>
@@ -14337,16 +14362,16 @@
       <c r="G8" s="277">
         <v>7</v>
       </c>
-      <c r="H8" s="544"/>
-      <c r="I8" s="544"/>
-      <c r="J8" s="544"/>
+      <c r="H8" s="531"/>
+      <c r="I8" s="531"/>
+      <c r="J8" s="531"/>
       <c r="K8" s="277" t="s">
         <v>249</v>
       </c>
       <c r="L8" s="281"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="554"/>
+      <c r="B9" s="528"/>
       <c r="C9" s="286" t="s">
         <v>583</v>
       </c>
@@ -14362,16 +14387,16 @@
       <c r="G9" s="277">
         <v>13</v>
       </c>
-      <c r="H9" s="544"/>
-      <c r="I9" s="544"/>
-      <c r="J9" s="544"/>
+      <c r="H9" s="531"/>
+      <c r="I9" s="531"/>
+      <c r="J9" s="531"/>
       <c r="K9" s="277" t="s">
         <v>249</v>
       </c>
       <c r="L9" s="281"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="555"/>
+      <c r="B10" s="529"/>
       <c r="C10" s="296" t="s">
         <v>584</v>
       </c>
@@ -14387,16 +14412,16 @@
       <c r="G10" s="297">
         <v>17</v>
       </c>
-      <c r="H10" s="545"/>
-      <c r="I10" s="545"/>
-      <c r="J10" s="545"/>
+      <c r="H10" s="532"/>
+      <c r="I10" s="532"/>
+      <c r="J10" s="532"/>
       <c r="K10" s="297" t="s">
         <v>249</v>
       </c>
       <c r="L10" s="298"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B11" s="551" t="s">
+      <c r="B11" s="525" t="s">
         <v>578</v>
       </c>
       <c r="C11" s="290" t="s">
@@ -14420,7 +14445,7 @@
       <c r="I11" s="291" t="s">
         <v>609</v>
       </c>
-      <c r="J11" s="546" t="s">
+      <c r="J11" s="533" t="s">
         <v>602</v>
       </c>
       <c r="K11" s="291" t="s">
@@ -14429,7 +14454,7 @@
       <c r="L11" s="292"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B12" s="551"/>
+      <c r="B12" s="525"/>
       <c r="C12" s="287" t="s">
         <v>586</v>
       </c>
@@ -14451,14 +14476,14 @@
       <c r="I12" s="278" t="s">
         <v>609</v>
       </c>
-      <c r="J12" s="546"/>
+      <c r="J12" s="533"/>
       <c r="K12" s="278" t="s">
         <v>249</v>
       </c>
       <c r="L12" s="282"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="551"/>
+      <c r="B13" s="525"/>
       <c r="C13" s="287" t="s">
         <v>587</v>
       </c>
@@ -14480,14 +14505,14 @@
       <c r="I13" s="278" t="s">
         <v>609</v>
       </c>
-      <c r="J13" s="546"/>
+      <c r="J13" s="533"/>
       <c r="K13" s="278" t="s">
         <v>510</v>
       </c>
       <c r="L13" s="282"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="551"/>
+      <c r="B14" s="525"/>
       <c r="C14" s="287" t="s">
         <v>588</v>
       </c>
@@ -14509,14 +14534,14 @@
       <c r="I14" s="278" t="s">
         <v>610</v>
       </c>
-      <c r="J14" s="546"/>
+      <c r="J14" s="533"/>
       <c r="K14" s="278" t="s">
         <v>510</v>
       </c>
       <c r="L14" s="282"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B15" s="551"/>
+      <c r="B15" s="525"/>
       <c r="C15" s="287" t="s">
         <v>589</v>
       </c>
@@ -14538,14 +14563,14 @@
       <c r="I15" s="278" t="s">
         <v>611</v>
       </c>
-      <c r="J15" s="546"/>
+      <c r="J15" s="533"/>
       <c r="K15" s="278" t="s">
         <v>249</v>
       </c>
       <c r="L15" s="282"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B16" s="551"/>
+      <c r="B16" s="525"/>
       <c r="C16" s="287" t="s">
         <v>590</v>
       </c>
@@ -14567,14 +14592,14 @@
       <c r="I16" s="278" t="s">
         <v>612</v>
       </c>
-      <c r="J16" s="547"/>
+      <c r="J16" s="534"/>
       <c r="K16" s="278" t="s">
         <v>510</v>
       </c>
       <c r="L16" s="282"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B17" s="551"/>
+      <c r="B17" s="525"/>
       <c r="C17" s="287" t="s">
         <v>591</v>
       </c>
@@ -14605,7 +14630,7 @@
       <c r="L17" s="282"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B18" s="551"/>
+      <c r="B18" s="525"/>
       <c r="C18" s="287" t="s">
         <v>592</v>
       </c>
@@ -14627,7 +14652,7 @@
       <c r="I18" s="278" t="s">
         <v>613</v>
       </c>
-      <c r="J18" s="548" t="s">
+      <c r="J18" s="535" t="s">
         <v>602</v>
       </c>
       <c r="K18" s="278" t="s">
@@ -14636,7 +14661,7 @@
       <c r="L18" s="282"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B19" s="551"/>
+      <c r="B19" s="525"/>
       <c r="C19" s="287" t="s">
         <v>593</v>
       </c>
@@ -14658,14 +14683,14 @@
       <c r="I19" s="278" t="s">
         <v>611</v>
       </c>
-      <c r="J19" s="546"/>
+      <c r="J19" s="533"/>
       <c r="K19" s="278" t="s">
         <v>510</v>
       </c>
       <c r="L19" s="282"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B20" s="551"/>
+      <c r="B20" s="525"/>
       <c r="C20" s="287" t="s">
         <v>594</v>
       </c>
@@ -14687,14 +14712,14 @@
       <c r="I20" s="278" t="s">
         <v>614</v>
       </c>
-      <c r="J20" s="546"/>
+      <c r="J20" s="533"/>
       <c r="K20" s="278" t="s">
         <v>249</v>
       </c>
       <c r="L20" s="282"/>
     </row>
     <row r="21" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="552"/>
+      <c r="B21" s="526"/>
       <c r="C21" s="288" t="s">
         <v>595</v>
       </c>
@@ -14716,19 +14741,19 @@
       <c r="I21" s="283" t="s">
         <v>615</v>
       </c>
-      <c r="J21" s="549"/>
+      <c r="J21" s="536"/>
       <c r="K21" s="283" t="s">
         <v>510</v>
       </c>
       <c r="L21" s="284"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="I22" s="550" t="s">
+      <c r="I22" s="524" t="s">
         <v>616</v>
       </c>
-      <c r="J22" s="550"/>
-      <c r="K22" s="550"/>
-      <c r="L22" s="550"/>
+      <c r="J22" s="524"/>
+      <c r="K22" s="524"/>
+      <c r="L22" s="524"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -14821,12 +14846,12 @@
       </c>
     </row>
     <row r="9" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="I9" s="556" t="s">
+      <c r="I9" s="320" t="s">
         <v>633</v>
       </c>
-      <c r="J9" s="556"/>
-      <c r="K9" s="556"/>
-      <c r="L9" s="556"/>
+      <c r="J9" s="320"/>
+      <c r="K9" s="320"/>
+      <c r="L9" s="320"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
